--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -418,25 +418,25 @@
         <v>4.50106852458569</v>
       </c>
       <c r="D2">
-        <v>7.061817037964031</v>
+        <v>7.061817037963913</v>
       </c>
       <c r="E2">
-        <v>34.5135461994904</v>
+        <v>34.51354619949048</v>
       </c>
       <c r="F2">
-        <v>48.87333078353206</v>
+        <v>48.87333078353248</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36.88975672024893</v>
+        <v>36.88975672024925</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>105.0237612866516</v>
+        <v>105.0237612866518</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.800023360786938</v>
+        <v>3.800023360786932</v>
       </c>
       <c r="D3">
-        <v>5.967005883551739</v>
+        <v>5.967005883551808</v>
       </c>
       <c r="E3">
-        <v>31.12373124817478</v>
+        <v>31.12373124817472</v>
       </c>
       <c r="F3">
-        <v>42.77461453327366</v>
+        <v>42.7746145332735</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.27002267933369</v>
+        <v>32.27002267933359</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.44523627124457</v>
+        <v>96.44523627124444</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.404429033338167</v>
+        <v>3.404429033338306</v>
       </c>
       <c r="D4">
-        <v>5.346505727203748</v>
+        <v>5.346505727203615</v>
       </c>
       <c r="E4">
-        <v>29.11640393259514</v>
+        <v>29.1164039325952</v>
       </c>
       <c r="F4">
-        <v>39.27875047789129</v>
+        <v>39.27875047789177</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>29.61302475610586</v>
+        <v>29.61302475610619</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>91.14672724627853</v>
+        <v>91.14672724627879</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.249127110848745</v>
+        <v>3.249127110848744</v>
       </c>
       <c r="D5">
-        <v>5.102329581144668</v>
+        <v>5.102329581144667</v>
       </c>
       <c r="E5">
-        <v>28.3063343155531</v>
+        <v>28.30633431555321</v>
       </c>
       <c r="F5">
-        <v>37.89647893244563</v>
+        <v>37.89647893244604</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28.55997771421037</v>
+        <v>28.55997771421067</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>88.9650036582335</v>
+        <v>88.9650036582336</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.223632802142995</v>
+        <v>3.223632802142987</v>
       </c>
       <c r="D6">
-        <v>5.062213195584567</v>
+        <v>5.062213195584824</v>
       </c>
       <c r="E6">
-        <v>28.17206804999596</v>
+        <v>28.17206804999605</v>
       </c>
       <c r="F6">
-        <v>37.66907285139827</v>
+        <v>37.66907285139869</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28.38657776336328</v>
+        <v>28.38657776336365</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88.60103826497888</v>
+        <v>88.60103826497905</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.402313635444342</v>
+        <v>3.402313635444339</v>
       </c>
       <c r="D7">
-        <v>5.343182015603325</v>
+        <v>5.343182015603333</v>
       </c>
       <c r="E7">
         <v>29.1054579362666</v>
       </c>
       <c r="F7">
-        <v>39.25995794655095</v>
+        <v>39.25995794655084</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>29.59871857837696</v>
+        <v>29.59871857837688</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>91.11741050841854</v>
+        <v>91.1174105084185</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.249962431336181</v>
+        <v>4.249962431336051</v>
       </c>
       <c r="D8">
-        <v>6.670333640709244</v>
+        <v>6.670333640709308</v>
       </c>
       <c r="E8">
-        <v>33.3212555443747</v>
+        <v>33.32125554437474</v>
       </c>
       <c r="F8">
-        <v>46.70342242703326</v>
+        <v>46.70342242703329</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35.24787397064906</v>
+        <v>35.24787397064912</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>102.0614475622945</v>
+        <v>102.0614475622946</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D9">
         <v>10.087349411311</v>
       </c>
       <c r="E9">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F9">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D10">
         <v>10.087349411311</v>
       </c>
       <c r="E10">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F10">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D11">
         <v>10.087349411311</v>
       </c>
       <c r="E11">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F11">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D12">
         <v>10.087349411311</v>
       </c>
       <c r="E12">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F12">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D13">
         <v>10.087349411311</v>
       </c>
       <c r="E13">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F13">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D14">
         <v>10.087349411311</v>
       </c>
       <c r="E14">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F14">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D15">
         <v>10.087349411311</v>
       </c>
       <c r="E15">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F15">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D16">
         <v>10.087349411311</v>
       </c>
       <c r="E16">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F16">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D17">
         <v>10.087349411311</v>
       </c>
       <c r="E17">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F17">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D18">
         <v>10.087349411311</v>
       </c>
       <c r="E18">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F18">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D19">
         <v>10.087349411311</v>
       </c>
       <c r="E19">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F19">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D20">
         <v>10.087349411311</v>
       </c>
       <c r="E20">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F20">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D21">
         <v>10.087349411311</v>
       </c>
       <c r="E21">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F21">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D22">
         <v>10.087349411311</v>
       </c>
       <c r="E22">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F22">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D23">
         <v>10.087349411311</v>
       </c>
       <c r="E23">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F23">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D24">
         <v>10.087349411311</v>
       </c>
       <c r="E24">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F24">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.45562445512317</v>
+        <v>6.455624455122902</v>
       </c>
       <c r="D25">
         <v>10.087349411311</v>
       </c>
       <c r="E25">
-        <v>43.20884474747452</v>
+        <v>43.20884474747449</v>
       </c>
       <c r="F25">
-        <v>65.21026609416762</v>
+        <v>65.21026609416779</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49.21542263047732</v>
+        <v>49.21542263047748</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>124.5952862065913</v>
+        <v>124.5952862065914</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -418,25 +418,25 @@
         <v>4.50106852458569</v>
       </c>
       <c r="D2">
-        <v>7.061817037963913</v>
+        <v>7.061817037964031</v>
       </c>
       <c r="E2">
-        <v>34.51354619949048</v>
+        <v>34.5135461994904</v>
       </c>
       <c r="F2">
-        <v>48.87333078353248</v>
+        <v>48.87333078353206</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36.88975672024925</v>
+        <v>36.88975672024893</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>105.0237612866518</v>
+        <v>105.0237612866516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.800023360786932</v>
+        <v>3.800023360786938</v>
       </c>
       <c r="D3">
-        <v>5.967005883551808</v>
+        <v>5.967005883551739</v>
       </c>
       <c r="E3">
-        <v>31.12373124817472</v>
+        <v>31.12373124817478</v>
       </c>
       <c r="F3">
-        <v>42.7746145332735</v>
+        <v>42.77461453327366</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.27002267933359</v>
+        <v>32.27002267933369</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.44523627124444</v>
+        <v>96.44523627124457</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.404429033338306</v>
+        <v>3.404429033338167</v>
       </c>
       <c r="D4">
-        <v>5.346505727203615</v>
+        <v>5.346505727203748</v>
       </c>
       <c r="E4">
-        <v>29.1164039325952</v>
+        <v>29.11640393259514</v>
       </c>
       <c r="F4">
-        <v>39.27875047789177</v>
+        <v>39.27875047789129</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>29.61302475610619</v>
+        <v>29.61302475610586</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>91.14672724627879</v>
+        <v>91.14672724627853</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.249127110848744</v>
+        <v>3.249127110848745</v>
       </c>
       <c r="D5">
-        <v>5.102329581144667</v>
+        <v>5.102329581144668</v>
       </c>
       <c r="E5">
-        <v>28.30633431555321</v>
+        <v>28.3063343155531</v>
       </c>
       <c r="F5">
-        <v>37.89647893244604</v>
+        <v>37.89647893244563</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28.55997771421067</v>
+        <v>28.55997771421037</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>88.9650036582336</v>
+        <v>88.9650036582335</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.223632802142987</v>
+        <v>3.223632802142995</v>
       </c>
       <c r="D6">
-        <v>5.062213195584824</v>
+        <v>5.062213195584567</v>
       </c>
       <c r="E6">
-        <v>28.17206804999605</v>
+        <v>28.17206804999596</v>
       </c>
       <c r="F6">
-        <v>37.66907285139869</v>
+        <v>37.66907285139827</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28.38657776336365</v>
+        <v>28.38657776336328</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88.60103826497905</v>
+        <v>88.60103826497888</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.402313635444339</v>
+        <v>3.402313635444342</v>
       </c>
       <c r="D7">
-        <v>5.343182015603333</v>
+        <v>5.343182015603325</v>
       </c>
       <c r="E7">
         <v>29.1054579362666</v>
       </c>
       <c r="F7">
-        <v>39.25995794655084</v>
+        <v>39.25995794655095</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>29.59871857837688</v>
+        <v>29.59871857837696</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>91.1174105084185</v>
+        <v>91.11741050841854</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.249962431336051</v>
+        <v>4.249962431336181</v>
       </c>
       <c r="D8">
-        <v>6.670333640709308</v>
+        <v>6.670333640709244</v>
       </c>
       <c r="E8">
-        <v>33.32125554437474</v>
+        <v>33.3212555443747</v>
       </c>
       <c r="F8">
-        <v>46.70342242703329</v>
+        <v>46.70342242703326</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35.24787397064912</v>
+        <v>35.24787397064906</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>102.0614475622946</v>
+        <v>102.0614475622945</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D9">
         <v>10.087349411311</v>
       </c>
       <c r="E9">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F9">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D10">
         <v>10.087349411311</v>
       </c>
       <c r="E10">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F10">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D11">
         <v>10.087349411311</v>
       </c>
       <c r="E11">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F11">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D12">
         <v>10.087349411311</v>
       </c>
       <c r="E12">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F12">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D13">
         <v>10.087349411311</v>
       </c>
       <c r="E13">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F13">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D14">
         <v>10.087349411311</v>
       </c>
       <c r="E14">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F14">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D15">
         <v>10.087349411311</v>
       </c>
       <c r="E15">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F15">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D16">
         <v>10.087349411311</v>
       </c>
       <c r="E16">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F16">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D17">
         <v>10.087349411311</v>
       </c>
       <c r="E17">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F17">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D18">
         <v>10.087349411311</v>
       </c>
       <c r="E18">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F18">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D19">
         <v>10.087349411311</v>
       </c>
       <c r="E19">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F19">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D20">
         <v>10.087349411311</v>
       </c>
       <c r="E20">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F20">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D21">
         <v>10.087349411311</v>
       </c>
       <c r="E21">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F21">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D22">
         <v>10.087349411311</v>
       </c>
       <c r="E22">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F22">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D23">
         <v>10.087349411311</v>
       </c>
       <c r="E23">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F23">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D24">
         <v>10.087349411311</v>
       </c>
       <c r="E24">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F24">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.455624455122902</v>
+        <v>6.45562445512317</v>
       </c>
       <c r="D25">
         <v>10.087349411311</v>
       </c>
       <c r="E25">
-        <v>43.20884474747449</v>
+        <v>43.20884474747452</v>
       </c>
       <c r="F25">
-        <v>65.21026609416779</v>
+        <v>65.21026609416762</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49.21542263047748</v>
+        <v>49.21542263047732</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>124.5952862065914</v>
+        <v>124.5952862065913</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.50106852458569</v>
+        <v>4.327101813819545</v>
       </c>
       <c r="D2">
-        <v>7.061817037964031</v>
+        <v>6.837783996287521</v>
       </c>
       <c r="E2">
-        <v>34.5135461994904</v>
+        <v>34.33494335443223</v>
       </c>
       <c r="F2">
-        <v>48.87333078353206</v>
+        <v>48.21081708646744</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.827011897587058</v>
       </c>
       <c r="H2">
-        <v>36.88975672024893</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>36.36687059471967</v>
       </c>
       <c r="J2">
-        <v>105.0237612866516</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>104.6661432770905</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.800023360786938</v>
+        <v>3.631191274261004</v>
       </c>
       <c r="D3">
-        <v>5.967005883551739</v>
+        <v>5.753476099054155</v>
       </c>
       <c r="E3">
-        <v>31.12373124817478</v>
+        <v>30.97867785327573</v>
       </c>
       <c r="F3">
-        <v>42.77461453327366</v>
+        <v>42.21582816502522</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.871610122987358</v>
       </c>
       <c r="H3">
-        <v>32.27002267933369</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.81996159260389</v>
       </c>
       <c r="J3">
-        <v>96.44523627124457</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>96.13693298372651</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.404429033338167</v>
+        <v>3.237804563729361</v>
       </c>
       <c r="D4">
-        <v>5.346505727203748</v>
+        <v>5.138110942991622</v>
       </c>
       <c r="E4">
-        <v>29.11640393259514</v>
+        <v>28.98774363797166</v>
       </c>
       <c r="F4">
-        <v>39.27875047789129</v>
+        <v>38.7813058670131</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.89716763516033</v>
       </c>
       <c r="H4">
-        <v>29.61302475610586</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.2052938634614</v>
       </c>
       <c r="J4">
-        <v>91.14672724627853</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>90.86378430520648</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.249127110848745</v>
+        <v>3.083258867091678</v>
       </c>
       <c r="D5">
-        <v>5.102329581144668</v>
+        <v>4.895851521901831</v>
       </c>
       <c r="E5">
-        <v>28.3063343155531</v>
+        <v>28.18371737978828</v>
       </c>
       <c r="F5">
-        <v>37.89647893244563</v>
+        <v>37.42433474967359</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.907284019933011</v>
       </c>
       <c r="H5">
-        <v>28.55997771421037</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.1695561366217</v>
       </c>
       <c r="J5">
-        <v>88.9650036582335</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>88.69165559776579</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.223632802142995</v>
+        <v>3.057883316832067</v>
       </c>
       <c r="D6">
-        <v>5.062213195584567</v>
+        <v>4.856045948111085</v>
       </c>
       <c r="E6">
-        <v>28.17206804999596</v>
+        <v>28.05042433159795</v>
       </c>
       <c r="F6">
-        <v>37.66907285139827</v>
+        <v>37.20116750429388</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.90894938854736</v>
       </c>
       <c r="H6">
-        <v>28.38657776336328</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.99904822109868</v>
       </c>
       <c r="J6">
-        <v>88.60103826497888</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>88.32924861022521</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.402313635444342</v>
+        <v>3.23569985706534</v>
       </c>
       <c r="D7">
-        <v>5.343182015603325</v>
+        <v>5.134813643410601</v>
       </c>
       <c r="E7">
-        <v>29.1054579362666</v>
+        <v>28.97688133238218</v>
       </c>
       <c r="F7">
-        <v>39.25995794655095</v>
+        <v>38.76285240836216</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.897305108887035</v>
       </c>
       <c r="H7">
-        <v>29.59871857837696</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.19122021613513</v>
       </c>
       <c r="J7">
-        <v>91.11741050841854</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>90.83459949264862</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.249962431336181</v>
+        <v>4.078040028970391</v>
       </c>
       <c r="D8">
-        <v>6.670333640709244</v>
+        <v>6.450319768486497</v>
       </c>
       <c r="E8">
-        <v>33.3212555443747</v>
+        <v>33.15544160183575</v>
       </c>
       <c r="F8">
-        <v>46.70342242703326</v>
+        <v>46.07785621303847</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.842888741751334</v>
       </c>
       <c r="H8">
-        <v>35.24787397064906</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.75110769174542</v>
       </c>
       <c r="J8">
-        <v>102.0614475622945</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>101.7222604896669</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D9">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E9">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F9">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H9">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J9">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D10">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E10">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F10">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H10">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J10">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D11">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E11">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F11">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H11">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J11">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D12">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E12">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F12">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H12">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J12">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D13">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E13">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F13">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H13">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J13">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D14">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E14">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F14">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H14">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J14">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D15">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E15">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F15">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H15">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J15">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D16">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E16">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F16">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H16">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J16">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D17">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E17">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F17">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H17">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J17">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D18">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E18">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F18">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H18">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J18">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D19">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E19">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F19">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H19">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J19">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D20">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E20">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F20">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H20">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J20">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D21">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E21">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F21">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H21">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J21">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D22">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E22">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F22">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H22">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J22">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D23">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E23">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F23">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H23">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J23">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D24">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E24">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F24">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H24">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J24">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.45562445512317</v>
+        <v>6.252784581342752</v>
       </c>
       <c r="D25">
-        <v>10.087349411311</v>
+        <v>9.81373073151447</v>
       </c>
       <c r="E25">
-        <v>43.20884474747452</v>
+        <v>42.87827263598508</v>
       </c>
       <c r="F25">
-        <v>65.21026609416762</v>
+        <v>64.20798164631721</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.707025850122721</v>
       </c>
       <c r="H25">
-        <v>49.21542263047732</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>48.44540542435279</v>
       </c>
       <c r="J25">
-        <v>124.5952862065913</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>124.0409703123636</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.327101813819545</v>
+        <v>8.000825173037205</v>
       </c>
       <c r="D2">
-        <v>6.837783996287521</v>
+        <v>10.09397481705323</v>
       </c>
       <c r="E2">
-        <v>34.33494335443223</v>
+        <v>10.17809088133737</v>
       </c>
       <c r="F2">
-        <v>48.21081708646744</v>
+        <v>69.9794063200583</v>
       </c>
       <c r="G2">
-        <v>1.827011897587058</v>
+        <v>1.865775733257981</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.36687059471967</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>104.6661432770905</v>
+        <v>66.21163763128301</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>40.27879254370993</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.631191274261004</v>
+        <v>7.288357638718596</v>
       </c>
       <c r="D3">
-        <v>5.753476099054155</v>
+        <v>8.993590859905863</v>
       </c>
       <c r="E3">
-        <v>30.97867785327573</v>
+        <v>9.553203467448814</v>
       </c>
       <c r="F3">
-        <v>42.21582816502522</v>
+        <v>63.2383978714369</v>
       </c>
       <c r="G3">
-        <v>1.871610122987358</v>
+        <v>1.909410956445638</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.81996159260389</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>96.13693298372651</v>
+        <v>60.66350995315935</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>36.87173097334837</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.237804563729361</v>
+        <v>6.853631039026954</v>
       </c>
       <c r="D4">
-        <v>5.138110942991622</v>
+        <v>8.347681738705774</v>
       </c>
       <c r="E4">
-        <v>28.98774363797166</v>
+        <v>9.166821016736122</v>
       </c>
       <c r="F4">
-        <v>38.7813058670131</v>
+        <v>59.24394308788319</v>
       </c>
       <c r="G4">
-        <v>1.89716763516033</v>
+        <v>1.934851959821658</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.2052938634614</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>90.86378430520648</v>
+        <v>57.2368307621274</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34.77124038297943</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.083258867091678</v>
+        <v>6.67586832750793</v>
       </c>
       <c r="D5">
-        <v>4.895851521901831</v>
+        <v>8.089268153024898</v>
       </c>
       <c r="E5">
-        <v>28.18371737978828</v>
+        <v>9.007897801719787</v>
       </c>
       <c r="F5">
-        <v>37.42433474967359</v>
+        <v>57.63828241061346</v>
       </c>
       <c r="G5">
-        <v>1.907284019933011</v>
+        <v>1.945000981993111</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.1695561366217</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>88.69165559776579</v>
+        <v>55.82696191233665</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.90783089559646</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.057883316832067</v>
+        <v>6.646284195194625</v>
       </c>
       <c r="D6">
-        <v>4.856045948111085</v>
+        <v>8.051980243940609</v>
       </c>
       <c r="E6">
-        <v>28.05042433159795</v>
+        <v>8.981403042859947</v>
       </c>
       <c r="F6">
-        <v>37.20116750429388</v>
+        <v>57.37268084436948</v>
       </c>
       <c r="G6">
-        <v>1.90894938854736</v>
+        <v>1.946675835134719</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.99904822109868</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>88.32924861022521</v>
+        <v>55.59184530606947</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33.76388962014148</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.23569985706534</v>
+        <v>6.85123753421546</v>
       </c>
       <c r="D7">
-        <v>5.134813643410601</v>
+        <v>8.344180083640177</v>
       </c>
       <c r="E7">
-        <v>28.97688133238218</v>
+        <v>9.164684473292326</v>
       </c>
       <c r="F7">
-        <v>38.76285240836216</v>
+        <v>59.22221401982366</v>
       </c>
       <c r="G7">
-        <v>1.897305108887035</v>
+        <v>1.934989586225507</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.19122021613513</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>90.83459949264862</v>
+        <v>57.21788044136896</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34.75963203002507</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.078040028970391</v>
+        <v>7.753659704132561</v>
       </c>
       <c r="D8">
-        <v>6.450319768486497</v>
+        <v>9.706417782040729</v>
       </c>
       <c r="E8">
-        <v>33.15544160183575</v>
+        <v>9.962587671148416</v>
       </c>
       <c r="F8">
-        <v>46.07785621303847</v>
+        <v>67.61455258835421</v>
       </c>
       <c r="G8">
-        <v>1.842888741751334</v>
+        <v>1.881189884243354</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.75110769174542</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>101.7222604896669</v>
+        <v>64.29671626364129</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>39.10197732897001</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.252784581342752</v>
+        <v>9.647805012030686</v>
       </c>
       <c r="D9">
-        <v>9.81373073151447</v>
+        <v>12.83399273055609</v>
       </c>
       <c r="E9">
-        <v>42.87827263598508</v>
+        <v>11.57709376803457</v>
       </c>
       <c r="F9">
-        <v>64.20798164631721</v>
+        <v>86.4023989583266</v>
       </c>
       <c r="G9">
-        <v>1.707025850122721</v>
+        <v>1.755275818299243</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>124.0409703123636</v>
+        <v>78.68498256396718</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>47.96688704118701</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D10">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E10">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F10">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G10">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D11">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E11">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F11">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G11">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D12">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E12">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F12">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G12">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D13">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E13">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F13">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G13">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D14">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E14">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F14">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G14">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.252784581342752</v>
+        <v>11.52588364046218</v>
       </c>
       <c r="D15">
-        <v>9.81373073151447</v>
+        <v>16.31093483341241</v>
       </c>
       <c r="E15">
-        <v>42.87827263598508</v>
+        <v>13.12194215434698</v>
       </c>
       <c r="F15">
-        <v>64.20798164631721</v>
+        <v>106.4751059876878</v>
       </c>
       <c r="G15">
-        <v>1.707025850122721</v>
+        <v>1.611445147652251</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>124.0409703123636</v>
+        <v>92.2182136459581</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56.34267154382805</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.252784581342752</v>
+        <v>15.14223715310329</v>
       </c>
       <c r="D16">
-        <v>9.81373073151447</v>
+        <v>24.46993838282743</v>
       </c>
       <c r="E16">
-        <v>42.87827263598508</v>
+        <v>17.2011357894993</v>
       </c>
       <c r="F16">
-        <v>64.20798164631721</v>
+        <v>149.6905632116548</v>
       </c>
       <c r="G16">
-        <v>1.707025850122721</v>
+        <v>1.265249060708168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>124.0409703123636</v>
+        <v>115.7062848410337</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>70.5575076661476</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.252784581342752</v>
+        <v>15.58213223672588</v>
       </c>
       <c r="D17">
-        <v>9.81373073151447</v>
+        <v>25.70182037871572</v>
       </c>
       <c r="E17">
-        <v>42.87827263598508</v>
+        <v>18.19046785772993</v>
       </c>
       <c r="F17">
-        <v>64.20798164631721</v>
+        <v>155.5827621913568</v>
       </c>
       <c r="G17">
-        <v>1.707025850122721</v>
+        <v>1.213216856730471</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>124.0409703123636</v>
+        <v>118.3432582672091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>71.98967572787409</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.252784581342752</v>
+        <v>15.78762022771092</v>
       </c>
       <c r="D18">
-        <v>9.81373073151447</v>
+        <v>26.3166153322295</v>
       </c>
       <c r="E18">
-        <v>42.87827263598508</v>
+        <v>18.76199255850408</v>
       </c>
       <c r="F18">
-        <v>64.20798164631721</v>
+        <v>158.4347111774512</v>
       </c>
       <c r="G18">
-        <v>1.707025850122721</v>
+        <v>1.187433765945242</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>124.0409703123636</v>
+        <v>119.5737304098478</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>72.62092391991969</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.252784581342752</v>
+        <v>15.85139566530386</v>
       </c>
       <c r="D19">
-        <v>9.81373073151447</v>
+        <v>26.51407345164546</v>
       </c>
       <c r="E19">
-        <v>42.87827263598508</v>
+        <v>18.95816714832523</v>
       </c>
       <c r="F19">
-        <v>64.20798164631721</v>
+        <v>159.3367986274455</v>
       </c>
       <c r="G19">
-        <v>1.707025850122721</v>
+        <v>1.179186195987257</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>124.0409703123636</v>
+        <v>119.9568496911661</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>72.81117964452038</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D20">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E20">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F20">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G20">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D21">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E21">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F21">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G21">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D22">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E22">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F22">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G22">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D23">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E23">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F23">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G23">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D24">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E24">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F24">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G24">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.252784581342752</v>
+        <v>15.5409157088027</v>
       </c>
       <c r="D25">
-        <v>9.81373073151447</v>
+        <v>25.581959747633</v>
       </c>
       <c r="E25">
-        <v>42.87827263598508</v>
+        <v>18.08555098259597</v>
       </c>
       <c r="F25">
-        <v>64.20798164631721</v>
+        <v>155.0194851610743</v>
       </c>
       <c r="G25">
-        <v>1.707025850122721</v>
+        <v>1.218259918932023</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>48.44540542435279</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>124.0409703123636</v>
+        <v>118.0967352208546</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>71.85993546976027</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.000825173037205</v>
+        <v>7.257599134901108</v>
       </c>
       <c r="D2">
-        <v>10.09397481705323</v>
+        <v>3.803116677075095</v>
       </c>
       <c r="E2">
-        <v>10.17809088133737</v>
+        <v>30.01150786608638</v>
       </c>
       <c r="F2">
-        <v>69.9794063200583</v>
+        <v>17.59444182579229</v>
       </c>
       <c r="G2">
-        <v>1.865775733257981</v>
+        <v>2.049127727277275</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>66.21163763128301</v>
+        <v>25.47836584934755</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>40.27879254370993</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.22170230618279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.288357638718596</v>
+        <v>6.748390395464863</v>
       </c>
       <c r="D3">
-        <v>8.993590859905863</v>
+        <v>3.708202910017258</v>
       </c>
       <c r="E3">
-        <v>9.553203467448814</v>
+        <v>27.80078777713621</v>
       </c>
       <c r="F3">
-        <v>63.2383978714369</v>
+        <v>16.9652121375435</v>
       </c>
       <c r="G3">
-        <v>1.909410956445638</v>
+        <v>2.056758603558782</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>60.66350995315935</v>
+        <v>23.83095104044517</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>36.87173097334837</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.02318876122162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.853631039026954</v>
+        <v>6.419070923482441</v>
       </c>
       <c r="D4">
-        <v>8.347681738705774</v>
+        <v>3.649365792822447</v>
       </c>
       <c r="E4">
-        <v>9.166821016736122</v>
+        <v>26.38259499501591</v>
       </c>
       <c r="F4">
-        <v>59.24394308788319</v>
+        <v>16.60716958357159</v>
       </c>
       <c r="G4">
-        <v>1.934851959821658</v>
+        <v>2.061547013549447</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>57.2368307621274</v>
+        <v>22.76375531124094</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>34.77124038297943</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.93341789360247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.67586832750793</v>
+        <v>6.280629770977557</v>
       </c>
       <c r="D5">
-        <v>8.089268153024898</v>
+        <v>3.625265058260883</v>
       </c>
       <c r="E5">
-        <v>9.007897801719787</v>
+        <v>25.7889651752715</v>
       </c>
       <c r="F5">
-        <v>57.63828241061346</v>
+        <v>16.46838461315867</v>
       </c>
       <c r="G5">
-        <v>1.945000981993111</v>
+        <v>2.063525905983263</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>55.82696191233665</v>
+        <v>22.31480927554934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33.90783089559646</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.90449901802549</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.646284195194625</v>
+        <v>6.257384148699136</v>
       </c>
       <c r="D6">
-        <v>8.051980243940609</v>
+        <v>3.621256183825392</v>
       </c>
       <c r="E6">
-        <v>8.981403042859947</v>
+        <v>25.68943330129886</v>
       </c>
       <c r="F6">
-        <v>57.37268084436948</v>
+        <v>16.44576890492847</v>
       </c>
       <c r="G6">
-        <v>1.946675835134719</v>
+        <v>2.063856211587503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>55.59184530606947</v>
+        <v>22.23941208673208</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>33.76388962014148</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.90014711637612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.85123753421546</v>
+        <v>6.417221094071854</v>
       </c>
       <c r="D7">
-        <v>8.344180083640177</v>
+        <v>3.649041240801361</v>
       </c>
       <c r="E7">
-        <v>9.164684473292326</v>
+        <v>26.37465321104516</v>
       </c>
       <c r="F7">
-        <v>59.22221401982366</v>
+        <v>16.60526907311425</v>
       </c>
       <c r="G7">
-        <v>1.934989586225507</v>
+        <v>2.061573587810346</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>57.21788044136896</v>
+        <v>22.7577576325869</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>34.75963203002507</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.93299742772149</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.753659704132561</v>
+        <v>7.085451163831497</v>
       </c>
       <c r="D8">
-        <v>9.706417782040729</v>
+        <v>3.770515747446157</v>
       </c>
       <c r="E8">
-        <v>9.962587671148416</v>
+        <v>29.26161042828463</v>
       </c>
       <c r="F8">
-        <v>67.61455258835421</v>
+        <v>17.37161871519179</v>
       </c>
       <c r="G8">
-        <v>1.881189884243354</v>
+        <v>2.051738519110492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>64.29671626364129</v>
+        <v>24.9218526999765</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>39.10197732897001</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.14635326089683</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.647805012030686</v>
+        <v>8.266050497230086</v>
       </c>
       <c r="D9">
-        <v>12.83399273055609</v>
+        <v>4.003701439178283</v>
       </c>
       <c r="E9">
-        <v>11.57709376803457</v>
+        <v>34.46113460123608</v>
       </c>
       <c r="F9">
-        <v>86.4023989583266</v>
+        <v>19.09788812419609</v>
       </c>
       <c r="G9">
-        <v>1.755275818299243</v>
+        <v>2.033186363052019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>78.68498256396718</v>
+        <v>28.72752331459278</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>47.96688704118701</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.83576345764068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.52588364046218</v>
+        <v>9.057898537313108</v>
       </c>
       <c r="D10">
-        <v>16.31093483341241</v>
+        <v>4.1714154048348</v>
       </c>
       <c r="E10">
-        <v>13.12194215434698</v>
+        <v>38.03190200904375</v>
       </c>
       <c r="F10">
-        <v>106.4751059876878</v>
+        <v>20.50089113075853</v>
       </c>
       <c r="G10">
-        <v>1.611445147652251</v>
+        <v>2.019874814267974</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>92.2182136459581</v>
+        <v>31.2630554040465</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.52638406401385</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.52588364046218</v>
+        <v>9.402593188856466</v>
       </c>
       <c r="D11">
-        <v>16.31093483341241</v>
+        <v>4.246889064359444</v>
       </c>
       <c r="E11">
-        <v>13.12194215434698</v>
+        <v>39.61053226150076</v>
       </c>
       <c r="F11">
-        <v>106.4751059876878</v>
+        <v>21.26221192938069</v>
       </c>
       <c r="G11">
-        <v>1.611445147652251</v>
+        <v>2.013855291384402</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>92.2182136459581</v>
+        <v>32.36180756056605</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.88379155167714</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.52588364046218</v>
+        <v>9.530966664273443</v>
       </c>
       <c r="D12">
-        <v>16.31093483341241</v>
+        <v>4.275352984893828</v>
       </c>
       <c r="E12">
-        <v>13.12194215434698</v>
+        <v>40.20255223530531</v>
       </c>
       <c r="F12">
-        <v>106.4751059876878</v>
+        <v>21.58158481039712</v>
       </c>
       <c r="G12">
-        <v>1.611445147652251</v>
+        <v>2.011577878188878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>92.2182136459581</v>
+        <v>32.7701916203261</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.12643930606433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.52588364046218</v>
+        <v>9.503413674346046</v>
       </c>
       <c r="D13">
-        <v>16.31093483341241</v>
+        <v>4.269227867398765</v>
       </c>
       <c r="E13">
-        <v>13.12194215434698</v>
+        <v>40.07529284536646</v>
       </c>
       <c r="F13">
-        <v>106.4751059876878</v>
+        <v>21.51275538445811</v>
       </c>
       <c r="G13">
-        <v>1.611445147652251</v>
+        <v>2.012068322852467</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>92.2182136459581</v>
+        <v>32.68257780169009</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.07369479180858</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.52588364046218</v>
+        <v>9.413197272287338</v>
       </c>
       <c r="D14">
-        <v>16.31093483341241</v>
+        <v>4.249233113375099</v>
       </c>
       <c r="E14">
-        <v>13.12194215434698</v>
+        <v>39.65934878300298</v>
       </c>
       <c r="F14">
-        <v>106.4751059876878</v>
+        <v>21.2884661000878</v>
       </c>
       <c r="G14">
-        <v>1.611445147652251</v>
+        <v>2.013667905502287</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>92.2182136459581</v>
+        <v>32.39555860103368</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.90193194396609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.52588364046218</v>
+        <v>9.357658898225015</v>
       </c>
       <c r="D15">
-        <v>16.31093483341241</v>
+        <v>4.236970729388729</v>
       </c>
       <c r="E15">
-        <v>13.12194215434698</v>
+        <v>39.40384503638116</v>
       </c>
       <c r="F15">
-        <v>106.4751059876878</v>
+        <v>21.15121655401757</v>
       </c>
       <c r="G15">
-        <v>1.611445147652251</v>
+        <v>2.014647863340101</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>92.2182136459581</v>
+        <v>32.21875516743447</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>56.34267154382805</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.83526989355674</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.14223715310329</v>
+        <v>9.035066028012366</v>
       </c>
       <c r="D16">
-        <v>24.46993838282743</v>
+        <v>4.166466553274454</v>
       </c>
       <c r="E16">
-        <v>17.2011357894993</v>
+        <v>37.92788065158626</v>
       </c>
       <c r="F16">
-        <v>149.6905632116548</v>
+        <v>20.45785764879125</v>
       </c>
       <c r="G16">
-        <v>1.265249060708168</v>
+        <v>2.020268670118791</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>115.7062848410337</v>
+        <v>31.19016340806533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.5575076661476</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.50391668993506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.58213223672588</v>
+        <v>8.833243023645073</v>
       </c>
       <c r="D17">
-        <v>25.70182037871572</v>
+        <v>4.123004167466077</v>
       </c>
       <c r="E17">
-        <v>18.19046785772993</v>
+        <v>37.011248010197</v>
       </c>
       <c r="F17">
-        <v>155.5827621913568</v>
+        <v>20.08400301749779</v>
       </c>
       <c r="G17">
-        <v>1.213216856730471</v>
+        <v>2.023723966230746</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>118.3432582672091</v>
+        <v>30.54526789484491</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>71.98967572787409</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.31188519747478</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.78762022771092</v>
+        <v>8.715693857703585</v>
       </c>
       <c r="D18">
-        <v>26.3166153322295</v>
+        <v>4.097928178076016</v>
       </c>
       <c r="E18">
-        <v>18.76199255850408</v>
+        <v>36.47966663211535</v>
       </c>
       <c r="F18">
-        <v>158.4347111774512</v>
+        <v>19.87172652950578</v>
       </c>
       <c r="G18">
-        <v>1.187433765945242</v>
+        <v>2.025714955407508</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>119.5737304098478</v>
+        <v>30.16918318757347</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>72.62092391991969</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.20549139107304</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.85139566530386</v>
+        <v>8.675639727101888</v>
       </c>
       <c r="D19">
-        <v>26.51407345164546</v>
+        <v>4.089424579833723</v>
       </c>
       <c r="E19">
-        <v>18.95816714832523</v>
+        <v>36.29891109079156</v>
       </c>
       <c r="F19">
-        <v>159.3367986274455</v>
+        <v>19.80032578628876</v>
       </c>
       <c r="G19">
-        <v>1.179186195987257</v>
+        <v>2.026389776206094</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>119.9568496911661</v>
+        <v>30.04095661497769</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>72.81117964452038</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.17015795640441</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.5409157088027</v>
+        <v>8.854878608313536</v>
       </c>
       <c r="D20">
-        <v>25.581959747633</v>
+        <v>4.127638844040081</v>
       </c>
       <c r="E20">
-        <v>18.08555098259597</v>
+        <v>37.10927075721816</v>
       </c>
       <c r="F20">
-        <v>155.0194851610743</v>
+        <v>20.12351516596259</v>
       </c>
       <c r="G20">
-        <v>1.218259918932023</v>
+        <v>2.023355793423963</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>118.0967352208546</v>
+        <v>30.6144507657417</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.33190562637563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.5409157088027</v>
+        <v>9.439753849865705</v>
       </c>
       <c r="D21">
-        <v>25.581959747633</v>
+        <v>4.255109177858183</v>
       </c>
       <c r="E21">
-        <v>18.08555098259597</v>
+        <v>39.78167133170537</v>
       </c>
       <c r="F21">
-        <v>155.0194851610743</v>
+        <v>21.35431706237812</v>
       </c>
       <c r="G21">
-        <v>1.218259918932023</v>
+        <v>2.013198040604489</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>118.0967352208546</v>
+        <v>32.48007029811213</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.95234335745937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.5409157088027</v>
+        <v>9.809484448559843</v>
       </c>
       <c r="D22">
-        <v>25.581959747633</v>
+        <v>4.337744628081399</v>
       </c>
       <c r="E22">
-        <v>18.08555098259597</v>
+        <v>41.49505208398186</v>
       </c>
       <c r="F22">
-        <v>155.0194851610743</v>
+        <v>22.28589150157485</v>
       </c>
       <c r="G22">
-        <v>1.218259918932023</v>
+        <v>2.006569549378606</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>118.0967352208546</v>
+        <v>33.65463731944595</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.66705024684474</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.5409157088027</v>
+        <v>9.613270354405016</v>
       </c>
       <c r="D23">
-        <v>25.581959747633</v>
+        <v>4.293700403091596</v>
       </c>
       <c r="E23">
-        <v>18.08555098259597</v>
+        <v>40.58332797568257</v>
       </c>
       <c r="F23">
-        <v>155.0194851610743</v>
+        <v>21.78809741051604</v>
       </c>
       <c r="G23">
-        <v>1.218259918932023</v>
+        <v>2.010107510072028</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>118.0967352208546</v>
+        <v>33.0317777420692</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.28478649833596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.5409157088027</v>
+        <v>8.845101895783941</v>
       </c>
       <c r="D24">
-        <v>25.581959747633</v>
+        <v>4.125543783685379</v>
       </c>
       <c r="E24">
-        <v>18.08555098259597</v>
+        <v>37.06496905104429</v>
       </c>
       <c r="F24">
-        <v>155.0194851610743</v>
+        <v>20.10564344919121</v>
       </c>
       <c r="G24">
-        <v>1.218259918932023</v>
+        <v>2.023522230123553</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>118.0967352208546</v>
+        <v>30.58318979087151</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.32284192491313</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.5409157088027</v>
+        <v>7.960207162300979</v>
       </c>
       <c r="D25">
-        <v>25.581959747633</v>
+        <v>3.941225306241017</v>
       </c>
       <c r="E25">
-        <v>18.08555098259597</v>
+        <v>33.10086081421559</v>
       </c>
       <c r="F25">
-        <v>155.0194851610743</v>
+        <v>18.60714392018395</v>
       </c>
       <c r="G25">
-        <v>1.218259918932023</v>
+        <v>2.038139074189577</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>118.0967352208546</v>
+        <v>27.74428647801976</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>71.85993546976027</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.61813316869788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.257599134901108</v>
+        <v>4.920233846125796</v>
       </c>
       <c r="D2">
-        <v>3.803116677075095</v>
+        <v>4.26030435454938</v>
       </c>
       <c r="E2">
-        <v>30.01150786608638</v>
+        <v>16.5182167249567</v>
       </c>
       <c r="F2">
-        <v>17.59444182579229</v>
+        <v>22.05448126744788</v>
       </c>
       <c r="G2">
-        <v>2.049127727277275</v>
+        <v>3.610796766715304</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.47836584934755</v>
+        <v>15.88773969315364</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.22170230618279</v>
+        <v>19.62758929797896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.748390395464863</v>
+        <v>4.749570996603186</v>
       </c>
       <c r="D3">
-        <v>3.708202910017258</v>
+        <v>4.232734541106978</v>
       </c>
       <c r="E3">
-        <v>27.80078777713621</v>
+        <v>15.57829436551835</v>
       </c>
       <c r="F3">
-        <v>16.9652121375435</v>
+        <v>22.10850585961802</v>
       </c>
       <c r="G3">
-        <v>2.056758603558782</v>
+        <v>3.613461599718025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.83095104044517</v>
+        <v>15.11944908495187</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.02318876122162</v>
+        <v>19.7443556213385</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.419070923482441</v>
+        <v>4.643154055282187</v>
       </c>
       <c r="D4">
-        <v>3.649365792822447</v>
+        <v>4.215922356990685</v>
       </c>
       <c r="E4">
-        <v>26.38259499501591</v>
+        <v>14.9764604527888</v>
       </c>
       <c r="F4">
-        <v>16.60716958357159</v>
+        <v>22.15256032837706</v>
       </c>
       <c r="G4">
-        <v>2.061547013549447</v>
+        <v>3.615180304542782</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.76375531124094</v>
+        <v>14.62730794762479</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.93341789360247</v>
+        <v>19.8244267812052</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.280629770977557</v>
+        <v>4.599456353541459</v>
       </c>
       <c r="D5">
-        <v>3.625265058260883</v>
+        <v>4.209104587827865</v>
       </c>
       <c r="E5">
-        <v>25.7889651752715</v>
+        <v>14.72526202066048</v>
       </c>
       <c r="F5">
-        <v>16.46838461315867</v>
+        <v>22.17322544499681</v>
       </c>
       <c r="G5">
-        <v>2.063525905983263</v>
+        <v>3.615901508794893</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.31480927554934</v>
+        <v>14.42184242018346</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.90449901802549</v>
+        <v>19.85914331061602</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.257384148699136</v>
+        <v>4.592182728632412</v>
       </c>
       <c r="D6">
-        <v>3.621256183825392</v>
+        <v>4.207974637994665</v>
       </c>
       <c r="E6">
-        <v>25.68943330129886</v>
+        <v>14.68320049324652</v>
       </c>
       <c r="F6">
-        <v>16.44576890492847</v>
+        <v>22.17681995903875</v>
       </c>
       <c r="G6">
-        <v>2.063856211587503</v>
+        <v>3.616022523807858</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.23941208673208</v>
+        <v>14.38743530437854</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.90014711637612</v>
+        <v>19.86503343661537</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.417221094071854</v>
+        <v>4.642565969463111</v>
       </c>
       <c r="D7">
-        <v>3.649041240801361</v>
+        <v>4.215830269706748</v>
       </c>
       <c r="E7">
-        <v>26.37465321104516</v>
+        <v>14.97309638397218</v>
       </c>
       <c r="F7">
-        <v>16.60526907311425</v>
+        <v>22.15282807583164</v>
       </c>
       <c r="G7">
-        <v>2.061573587810346</v>
+        <v>3.615189946563786</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.7577576325869</v>
+        <v>14.62455655031473</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.93299742772149</v>
+        <v>19.82488655662731</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.085451163831497</v>
+        <v>4.861772167936813</v>
       </c>
       <c r="D8">
-        <v>3.770515747446157</v>
+        <v>4.250776788128404</v>
       </c>
       <c r="E8">
-        <v>29.26161042828463</v>
+        <v>16.19940750658397</v>
       </c>
       <c r="F8">
-        <v>17.37161871519179</v>
+        <v>22.07083630799838</v>
       </c>
       <c r="G8">
-        <v>2.051738519110492</v>
+        <v>3.611698527025648</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.9218526999765</v>
+        <v>15.62718845590669</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.14635326089683</v>
+        <v>19.66610025984131</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.266050497230086</v>
+        <v>5.275611982874131</v>
       </c>
       <c r="D9">
-        <v>4.003701439178283</v>
+        <v>4.320039924007671</v>
       </c>
       <c r="E9">
-        <v>34.46113460123608</v>
+        <v>18.49317080658181</v>
       </c>
       <c r="F9">
-        <v>19.09788812419609</v>
+        <v>21.99737278499233</v>
       </c>
       <c r="G9">
-        <v>2.033186363052019</v>
+        <v>3.605502868884516</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.72752331459278</v>
+        <v>17.42355055341829</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.83576345764068</v>
+        <v>19.42203813090024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.057898537313108</v>
+        <v>5.566200427766797</v>
       </c>
       <c r="D10">
-        <v>4.1714154048348</v>
+        <v>4.371125826048504</v>
       </c>
       <c r="E10">
-        <v>38.03190200904375</v>
+        <v>20.14271095942959</v>
       </c>
       <c r="F10">
-        <v>20.50089113075853</v>
+        <v>21.99779073258719</v>
       </c>
       <c r="G10">
-        <v>2.019874814267974</v>
+        <v>3.601342884360899</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.2630554040465</v>
+        <v>18.63130899603606</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.52638406401385</v>
+        <v>19.28491773831567</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.402593188856466</v>
+        <v>5.694820208658134</v>
       </c>
       <c r="D11">
-        <v>4.246889064359444</v>
+        <v>4.394356256296538</v>
       </c>
       <c r="E11">
-        <v>39.61053226150076</v>
+        <v>20.8510766058532</v>
       </c>
       <c r="F11">
-        <v>21.26221192938069</v>
+        <v>22.00998434585059</v>
       </c>
       <c r="G11">
-        <v>2.013855291384402</v>
+        <v>3.59953446158963</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.36180756056605</v>
+        <v>19.15510940501479</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.88379155167714</v>
+        <v>19.23194022509221</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.530966664273443</v>
+        <v>5.742965344609335</v>
       </c>
       <c r="D12">
-        <v>4.275352984893828</v>
+        <v>4.403147283938737</v>
       </c>
       <c r="E12">
-        <v>40.20255223530531</v>
+        <v>21.1133119709038</v>
       </c>
       <c r="F12">
-        <v>21.58158481039712</v>
+        <v>22.016339323989</v>
       </c>
       <c r="G12">
-        <v>2.011577878188878</v>
+        <v>3.598861654173872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.7701916203261</v>
+        <v>19.34969142436087</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.12643930606433</v>
+        <v>19.21324980986692</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.503413674346046</v>
+        <v>5.732622040504245</v>
       </c>
       <c r="D13">
-        <v>4.269227867398765</v>
+        <v>4.401254310557012</v>
       </c>
       <c r="E13">
-        <v>40.07529284536646</v>
+        <v>21.05710151772959</v>
       </c>
       <c r="F13">
-        <v>21.51275538445811</v>
+        <v>22.01489323846619</v>
       </c>
       <c r="G13">
-        <v>2.012068322852467</v>
+        <v>3.59900602260154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.68257780169009</v>
+        <v>19.30795357482319</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.07369479180858</v>
+        <v>19.21721384486646</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.413197272287338</v>
+        <v>5.698792618237488</v>
       </c>
       <c r="D14">
-        <v>4.249233113375099</v>
+        <v>4.395079642350309</v>
       </c>
       <c r="E14">
-        <v>39.65934878300298</v>
+        <v>20.87277106402972</v>
       </c>
       <c r="F14">
-        <v>21.2884661000878</v>
+        <v>22.01047229625371</v>
       </c>
       <c r="G14">
-        <v>2.013667905502287</v>
+        <v>3.599478869174303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.39555860103368</v>
+        <v>19.17119377561158</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90193194396609</v>
+        <v>19.23037496667275</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.357658898225015</v>
+        <v>5.677996842622285</v>
       </c>
       <c r="D15">
-        <v>4.236970729388729</v>
+        <v>4.39129658532149</v>
       </c>
       <c r="E15">
-        <v>39.40384503638116</v>
+        <v>20.7590820381577</v>
       </c>
       <c r="F15">
-        <v>21.15121655401757</v>
+        <v>22.00799090690289</v>
       </c>
       <c r="G15">
-        <v>2.014647863340101</v>
+        <v>3.599770062356459</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.21875516743447</v>
+        <v>19.08693121841346</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.83526989355674</v>
+        <v>19.23861564879398</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.035066028012366</v>
+        <v>5.55771883473164</v>
       </c>
       <c r="D16">
-        <v>4.166466553274454</v>
+        <v>4.369607094591978</v>
       </c>
       <c r="E16">
-        <v>37.92788065158626</v>
+        <v>20.09557506550816</v>
       </c>
       <c r="F16">
-        <v>20.45785764879125</v>
+        <v>21.99723643691106</v>
       </c>
       <c r="G16">
-        <v>2.020268670118791</v>
+        <v>3.601462752633091</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.19016340806533</v>
+        <v>18.59655420385972</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.50391668993506</v>
+        <v>19.28857075138881</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.833243023645073</v>
+        <v>5.482982506472664</v>
       </c>
       <c r="D17">
-        <v>4.123004167466077</v>
+        <v>4.356295781328588</v>
       </c>
       <c r="E17">
-        <v>37.011248010197</v>
+        <v>19.67779797484908</v>
       </c>
       <c r="F17">
-        <v>20.08400301749779</v>
+        <v>21.993722367219</v>
       </c>
       <c r="G17">
-        <v>2.023723966230746</v>
+        <v>3.602522619669873</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.54526789484491</v>
+        <v>18.28909636171711</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.31188519747478</v>
+        <v>19.32163792986944</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.715693857703585</v>
+        <v>5.439662526093962</v>
       </c>
       <c r="D18">
-        <v>4.097928178076016</v>
+        <v>4.348638909016681</v>
       </c>
       <c r="E18">
-        <v>36.47966663211535</v>
+        <v>19.43354659497954</v>
       </c>
       <c r="F18">
-        <v>19.87172652950578</v>
+        <v>21.99283049279833</v>
       </c>
       <c r="G18">
-        <v>2.025714955407508</v>
+        <v>3.603140135604568</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.16918318757347</v>
+        <v>18.10984776299485</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.20549139107304</v>
+        <v>19.34154086485369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.675639727101888</v>
+        <v>5.424939348692758</v>
       </c>
       <c r="D19">
-        <v>4.089424579833723</v>
+        <v>4.346046467583076</v>
       </c>
       <c r="E19">
-        <v>36.29891109079156</v>
+        <v>19.35016658249905</v>
       </c>
       <c r="F19">
-        <v>19.80032578628876</v>
+        <v>21.99272208543215</v>
       </c>
       <c r="G19">
-        <v>2.026389776206094</v>
+        <v>3.603350576384241</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.04095661497769</v>
+        <v>18.04874677232701</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.17015795640441</v>
+        <v>19.34843081062401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.854878608313536</v>
+        <v>5.490973202650547</v>
       </c>
       <c r="D20">
-        <v>4.127638844040081</v>
+        <v>4.357712884223275</v>
       </c>
       <c r="E20">
-        <v>37.10927075721816</v>
+        <v>19.7226803445474</v>
       </c>
       <c r="F20">
-        <v>20.12351516596259</v>
+        <v>21.99397947314809</v>
       </c>
       <c r="G20">
-        <v>2.023355793423963</v>
+        <v>3.602408977048861</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.6144507657417</v>
+        <v>18.32207556513947</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.33190562637563</v>
+        <v>19.31802628435752</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.439753849865705</v>
+        <v>5.708744695110096</v>
       </c>
       <c r="D21">
-        <v>4.255109177858183</v>
+        <v>4.396893486579438</v>
       </c>
       <c r="E21">
-        <v>39.78167133170537</v>
+        <v>20.92707614691482</v>
       </c>
       <c r="F21">
-        <v>21.35431706237812</v>
+        <v>22.01172360187017</v>
       </c>
       <c r="G21">
-        <v>2.013198040604489</v>
+        <v>3.599339657491422</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.48007029811213</v>
+        <v>19.21146636470136</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.95234335745937</v>
+        <v>19.22647186481489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.809484448559843</v>
+        <v>5.847786648756218</v>
       </c>
       <c r="D22">
-        <v>4.337744628081399</v>
+        <v>4.422464189836281</v>
       </c>
       <c r="E22">
-        <v>41.49505208398186</v>
+        <v>21.67921913625817</v>
       </c>
       <c r="F22">
-        <v>22.28589150157485</v>
+        <v>22.03345121640704</v>
       </c>
       <c r="G22">
-        <v>2.006569549378606</v>
+        <v>3.597403609175363</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.65463731944595</v>
+        <v>19.77073201405528</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.66705024684474</v>
+        <v>19.17463574882485</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.613270354405016</v>
+        <v>5.773891959539124</v>
       </c>
       <c r="D23">
-        <v>4.293700403091596</v>
+        <v>4.408821425128562</v>
       </c>
       <c r="E23">
-        <v>40.58332797568257</v>
+        <v>21.2809772381904</v>
       </c>
       <c r="F23">
-        <v>21.78809741051604</v>
+        <v>22.02092480213907</v>
       </c>
       <c r="G23">
-        <v>2.010107510072028</v>
+        <v>3.598430539927016</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.0317777420692</v>
+        <v>19.47427915142602</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.28478649833596</v>
+        <v>19.20156337690024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.845101895783941</v>
+        <v>5.487361705043461</v>
       </c>
       <c r="D24">
-        <v>4.125543783685379</v>
+        <v>4.357072224157274</v>
       </c>
       <c r="E24">
-        <v>37.06496905104429</v>
+        <v>19.70240169223034</v>
       </c>
       <c r="F24">
-        <v>20.10564344919121</v>
+        <v>21.99385972155134</v>
       </c>
       <c r="G24">
-        <v>2.023522230123553</v>
+        <v>3.602460329378906</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.58318979087151</v>
+        <v>18.30717340698233</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.32284192491313</v>
+        <v>19.31965633169612</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.960207162300979</v>
+        <v>5.165778704104032</v>
       </c>
       <c r="D25">
-        <v>3.941225306241017</v>
+        <v>4.301249550244286</v>
       </c>
       <c r="E25">
-        <v>33.10086081421559</v>
+        <v>17.848219912773</v>
       </c>
       <c r="F25">
-        <v>18.60714392018395</v>
+        <v>22.00776869087911</v>
       </c>
       <c r="G25">
-        <v>2.038139074189577</v>
+        <v>3.607109771999675</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.74428647801976</v>
+        <v>16.9567438679337</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.61813316869788</v>
+        <v>19.48073636245494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.920233846125796</v>
+        <v>7.257599134901131</v>
       </c>
       <c r="D2">
-        <v>4.26030435454938</v>
+        <v>3.803116677075185</v>
       </c>
       <c r="E2">
-        <v>16.5182167249567</v>
+        <v>30.0115078660864</v>
       </c>
       <c r="F2">
-        <v>22.05448126744788</v>
+        <v>17.59444182579223</v>
       </c>
       <c r="G2">
-        <v>3.610796766715304</v>
+        <v>2.049127727277276</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.88773969315364</v>
+        <v>25.47836584934759</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.62758929797896</v>
+        <v>13.22170230618272</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749570996603186</v>
+        <v>6.74839039546489</v>
       </c>
       <c r="D3">
-        <v>4.232734541106978</v>
+        <v>3.708202910017363</v>
       </c>
       <c r="E3">
-        <v>15.57829436551835</v>
+        <v>27.8007877771362</v>
       </c>
       <c r="F3">
-        <v>22.10850585961802</v>
+        <v>16.9652121375433</v>
       </c>
       <c r="G3">
-        <v>3.613461599718025</v>
+        <v>2.056758603558781</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.11944908495187</v>
+        <v>23.83095104044525</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.7443556213385</v>
+        <v>13.02318876122145</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.643154055282187</v>
+        <v>6.419070923482384</v>
       </c>
       <c r="D4">
-        <v>4.215922356990685</v>
+        <v>3.649365792822464</v>
       </c>
       <c r="E4">
-        <v>14.9764604527888</v>
+        <v>26.38259499501596</v>
       </c>
       <c r="F4">
-        <v>22.15256032837706</v>
+        <v>16.6071695835715</v>
       </c>
       <c r="G4">
-        <v>3.615180304542782</v>
+        <v>2.061547013549046</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.62730794762479</v>
+        <v>22.76375531124097</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.8244267812052</v>
+        <v>12.93341789360236</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.599456353541459</v>
+        <v>6.28062977097765</v>
       </c>
       <c r="D5">
-        <v>4.209104587827865</v>
+        <v>3.625265058260987</v>
       </c>
       <c r="E5">
-        <v>14.72526202066048</v>
+        <v>25.78896517527156</v>
       </c>
       <c r="F5">
-        <v>22.17322544499681</v>
+        <v>16.46838461315853</v>
       </c>
       <c r="G5">
-        <v>3.615901508794893</v>
+        <v>2.063525905983263</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.42184242018346</v>
+        <v>22.31480927554935</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.85914331061602</v>
+        <v>12.90449901802534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.592182728632412</v>
+        <v>6.257384148699134</v>
       </c>
       <c r="D6">
-        <v>4.207974637994665</v>
+        <v>3.621256183825319</v>
       </c>
       <c r="E6">
-        <v>14.68320049324652</v>
+        <v>25.68943330129882</v>
       </c>
       <c r="F6">
-        <v>22.17681995903875</v>
+        <v>16.4457689049282</v>
       </c>
       <c r="G6">
-        <v>3.616022523807858</v>
+        <v>2.063856211587638</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.38743530437854</v>
+        <v>22.23941208673216</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.86503343661537</v>
+        <v>12.90014711637584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.642565969463111</v>
+        <v>6.417221094071871</v>
       </c>
       <c r="D7">
-        <v>4.215830269706748</v>
+        <v>3.649041240801409</v>
       </c>
       <c r="E7">
-        <v>14.97309638397218</v>
+        <v>26.37465321104524</v>
       </c>
       <c r="F7">
-        <v>22.15282807583164</v>
+        <v>16.60526907311441</v>
       </c>
       <c r="G7">
-        <v>3.615189946563786</v>
+        <v>2.061573587810348</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.62455655031473</v>
+        <v>22.75775763258688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.82488655662731</v>
+        <v>12.93299742772165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861772167936813</v>
+        <v>7.085451163831424</v>
       </c>
       <c r="D8">
-        <v>4.250776788128404</v>
+        <v>3.770515747446262</v>
       </c>
       <c r="E8">
-        <v>16.19940750658397</v>
+        <v>29.26161042828464</v>
       </c>
       <c r="F8">
-        <v>22.07083630799838</v>
+        <v>17.37161871519174</v>
       </c>
       <c r="G8">
-        <v>3.611698527025648</v>
+        <v>2.051738519110492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.62718845590669</v>
+        <v>24.92185269997651</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.66610025984131</v>
+        <v>13.14635326089679</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.275611982874131</v>
+        <v>8.266050497230125</v>
       </c>
       <c r="D9">
-        <v>4.320039924007671</v>
+        <v>4.00370143917829</v>
       </c>
       <c r="E9">
-        <v>18.49317080658181</v>
+        <v>34.46113460123612</v>
       </c>
       <c r="F9">
-        <v>21.99737278499233</v>
+        <v>19.0978881241961</v>
       </c>
       <c r="G9">
-        <v>3.605502868884516</v>
+        <v>2.033186363051754</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.42355055341829</v>
+        <v>28.72752331459286</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.42203813090024</v>
+        <v>13.83576345764066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.566200427766797</v>
+        <v>9.057898537313081</v>
       </c>
       <c r="D10">
-        <v>4.371125826048504</v>
+        <v>4.171415404834771</v>
       </c>
       <c r="E10">
-        <v>20.14271095942959</v>
+        <v>38.03190200904383</v>
       </c>
       <c r="F10">
-        <v>21.99779073258719</v>
+        <v>20.5008911307585</v>
       </c>
       <c r="G10">
-        <v>3.601342884360899</v>
+        <v>2.019874814267973</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.63130899603606</v>
+        <v>31.26305540404657</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.28491773831567</v>
+        <v>14.52638406401379</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.694820208658134</v>
+        <v>9.402593188856558</v>
       </c>
       <c r="D11">
-        <v>4.394356256296538</v>
+        <v>4.246889064359443</v>
       </c>
       <c r="E11">
-        <v>20.8510766058532</v>
+        <v>39.61053226150077</v>
       </c>
       <c r="F11">
-        <v>22.00998434585059</v>
+        <v>21.26221192938083</v>
       </c>
       <c r="G11">
-        <v>3.59953446158963</v>
+        <v>2.01385529138427</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.15510940501479</v>
+        <v>32.36180756056606</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.23194022509221</v>
+        <v>14.8837915516772</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.742965344609335</v>
+        <v>9.530966664273405</v>
       </c>
       <c r="D12">
-        <v>4.403147283938737</v>
+        <v>4.275352984893856</v>
       </c>
       <c r="E12">
-        <v>21.1133119709038</v>
+        <v>40.20255223530535</v>
       </c>
       <c r="F12">
-        <v>22.016339323989</v>
+        <v>21.5815848103971</v>
       </c>
       <c r="G12">
-        <v>3.598861654173872</v>
+        <v>2.011577878189013</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.34969142436087</v>
+        <v>32.7701916203261</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.21324980986692</v>
+        <v>15.12643930606431</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.732622040504245</v>
+        <v>9.503413674346053</v>
       </c>
       <c r="D13">
-        <v>4.401254310557012</v>
+        <v>4.269227867398711</v>
       </c>
       <c r="E13">
-        <v>21.05710151772959</v>
+        <v>40.07529284536643</v>
       </c>
       <c r="F13">
-        <v>22.01489323846619</v>
+        <v>21.5127553844581</v>
       </c>
       <c r="G13">
-        <v>3.59900602260154</v>
+        <v>2.012068322852601</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.30795357482319</v>
+        <v>32.68257780169012</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.21721384486646</v>
+        <v>15.0736947918086</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.698792618237488</v>
+        <v>9.413197272287292</v>
       </c>
       <c r="D14">
-        <v>4.395079642350309</v>
+        <v>4.249233113375049</v>
       </c>
       <c r="E14">
-        <v>20.87277106402972</v>
+        <v>39.659348783003</v>
       </c>
       <c r="F14">
-        <v>22.01047229625371</v>
+        <v>21.28846610008787</v>
       </c>
       <c r="G14">
-        <v>3.599478869174303</v>
+        <v>2.013667905502287</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.17119377561158</v>
+        <v>32.39555860103374</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.23037496667275</v>
+        <v>14.90193194396617</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.677996842622285</v>
+        <v>9.35765889822507</v>
       </c>
       <c r="D15">
-        <v>4.39129658532149</v>
+        <v>4.236970729388736</v>
       </c>
       <c r="E15">
-        <v>20.7590820381577</v>
+        <v>39.40384503638128</v>
       </c>
       <c r="F15">
-        <v>22.00799090690289</v>
+        <v>21.15121655401772</v>
       </c>
       <c r="G15">
-        <v>3.599770062356459</v>
+        <v>2.014647863340236</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.08693121841346</v>
+        <v>32.21875516743449</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.23861564879398</v>
+        <v>14.83526989355675</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.55771883473164</v>
+        <v>9.035066028012457</v>
       </c>
       <c r="D16">
-        <v>4.369607094591978</v>
+        <v>4.166466553274586</v>
       </c>
       <c r="E16">
-        <v>20.09557506550816</v>
+        <v>37.92788065158614</v>
       </c>
       <c r="F16">
-        <v>21.99723643691106</v>
+        <v>20.45785764879128</v>
       </c>
       <c r="G16">
-        <v>3.601462752633091</v>
+        <v>2.02026867011879</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.59655420385972</v>
+        <v>31.19016340806532</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.28857075138881</v>
+        <v>14.5039166899351</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.482982506472664</v>
+        <v>8.833243023644984</v>
       </c>
       <c r="D17">
-        <v>4.356295781328588</v>
+        <v>4.123004167466063</v>
       </c>
       <c r="E17">
-        <v>19.67779797484908</v>
+        <v>37.01124801019704</v>
       </c>
       <c r="F17">
-        <v>21.993722367219</v>
+        <v>20.08400301749775</v>
       </c>
       <c r="G17">
-        <v>3.602522619669873</v>
+        <v>2.023723966230747</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.28909636171711</v>
+        <v>30.54526789484488</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.32163792986944</v>
+        <v>14.31188519747477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.439662526093962</v>
+        <v>8.715693857703526</v>
       </c>
       <c r="D18">
-        <v>4.348638909016681</v>
+        <v>4.097928178076123</v>
       </c>
       <c r="E18">
-        <v>19.43354659497954</v>
+        <v>36.47966663211536</v>
       </c>
       <c r="F18">
-        <v>21.99283049279833</v>
+        <v>19.87172652950584</v>
       </c>
       <c r="G18">
-        <v>3.603140135604568</v>
+        <v>2.025714955407509</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.10984776299485</v>
+        <v>30.16918318757346</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.34154086485369</v>
+        <v>14.20549139107309</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.424939348692758</v>
+        <v>8.675639727101874</v>
       </c>
       <c r="D19">
-        <v>4.346046467583076</v>
+        <v>4.089424579833781</v>
       </c>
       <c r="E19">
-        <v>19.35016658249905</v>
+        <v>36.29891109079158</v>
       </c>
       <c r="F19">
-        <v>21.99272208543215</v>
+        <v>19.80032578628868</v>
       </c>
       <c r="G19">
-        <v>3.603350576384241</v>
+        <v>2.026389776205959</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.04874677232701</v>
+        <v>30.0409566149777</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.34843081062401</v>
+        <v>14.17015795640436</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.490973202650547</v>
+        <v>8.854878608313459</v>
       </c>
       <c r="D20">
-        <v>4.357712884223275</v>
+        <v>4.12763884404003</v>
       </c>
       <c r="E20">
-        <v>19.7226803445474</v>
+        <v>37.1092707572181</v>
       </c>
       <c r="F20">
-        <v>21.99397947314809</v>
+        <v>20.12351516596256</v>
       </c>
       <c r="G20">
-        <v>3.602408977048861</v>
+        <v>2.023355793423963</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.32207556513947</v>
+        <v>30.6144507657417</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.31802628435752</v>
+        <v>14.3319056263756</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.708744695110096</v>
+        <v>9.439753849865644</v>
       </c>
       <c r="D21">
-        <v>4.396893486579438</v>
+        <v>4.255109177858126</v>
       </c>
       <c r="E21">
-        <v>20.92707614691482</v>
+        <v>39.78167133170534</v>
       </c>
       <c r="F21">
-        <v>22.01172360187017</v>
+        <v>21.35431706237813</v>
       </c>
       <c r="G21">
-        <v>3.599339657491422</v>
+        <v>2.013198040604488</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.21146636470136</v>
+        <v>32.48007029811215</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.22647186481489</v>
+        <v>14.95234335745939</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.847786648756218</v>
+        <v>9.809484448559818</v>
       </c>
       <c r="D22">
-        <v>4.422464189836281</v>
+        <v>4.337744628081346</v>
       </c>
       <c r="E22">
-        <v>21.67921913625817</v>
+        <v>41.49505208398183</v>
       </c>
       <c r="F22">
-        <v>22.03345121640704</v>
+        <v>22.2858915015748</v>
       </c>
       <c r="G22">
-        <v>3.597403609175363</v>
+        <v>2.00656954937874</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.77073201405528</v>
+        <v>33.65463731944591</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.17463574882485</v>
+        <v>15.66705024684471</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.773891959539124</v>
+        <v>9.613270354405085</v>
       </c>
       <c r="D23">
-        <v>4.408821425128562</v>
+        <v>4.293700403091542</v>
       </c>
       <c r="E23">
-        <v>21.2809772381904</v>
+        <v>40.58332797568266</v>
       </c>
       <c r="F23">
-        <v>22.02092480213907</v>
+        <v>21.78809741051606</v>
       </c>
       <c r="G23">
-        <v>3.598430539927016</v>
+        <v>2.010107510072162</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.47427915142602</v>
+        <v>33.03177774206925</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.20156337690024</v>
+        <v>15.28478649833598</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.487361705043461</v>
+        <v>8.845101895783927</v>
       </c>
       <c r="D24">
-        <v>4.357072224157274</v>
+        <v>4.125543783685334</v>
       </c>
       <c r="E24">
-        <v>19.70240169223034</v>
+        <v>37.06496905104435</v>
       </c>
       <c r="F24">
-        <v>21.99385972155134</v>
+        <v>20.10564344919122</v>
       </c>
       <c r="G24">
-        <v>3.602460329378906</v>
+        <v>2.023522230123687</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.30717340698233</v>
+        <v>30.58318979087162</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.31965633169612</v>
+        <v>14.32284192491309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.165778704104032</v>
+        <v>7.960207162300962</v>
       </c>
       <c r="D25">
-        <v>4.301249550244286</v>
+        <v>3.941225306241106</v>
       </c>
       <c r="E25">
-        <v>17.848219912773</v>
+        <v>33.10086081421562</v>
       </c>
       <c r="F25">
-        <v>22.00776869087911</v>
+        <v>18.60714392018389</v>
       </c>
       <c r="G25">
-        <v>3.607109771999675</v>
+        <v>2.038139074189577</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.9567438679337</v>
+        <v>27.74428647801982</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.48073636245494</v>
+        <v>13.61813316869781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.257599134901131</v>
+        <v>4.088171057771214</v>
       </c>
       <c r="D2">
-        <v>3.803116677075185</v>
+        <v>4.410013019206597</v>
       </c>
       <c r="E2">
-        <v>30.0115078660864</v>
+        <v>12.39761686812829</v>
       </c>
       <c r="F2">
-        <v>17.59444182579223</v>
+        <v>22.56715404792056</v>
       </c>
       <c r="G2">
-        <v>2.049127727277276</v>
+        <v>30.72902136325599</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.799099365543919</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.390312655802507</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.39729435152146</v>
       </c>
       <c r="K2">
-        <v>25.47836584934759</v>
+        <v>17.78312956597645</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>20.50400247621914</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.22170230618272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.31969992770872</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.74839039546489</v>
+        <v>3.805957839154256</v>
       </c>
       <c r="D3">
-        <v>3.708202910017363</v>
+        <v>4.339162745907436</v>
       </c>
       <c r="E3">
-        <v>27.8007877771362</v>
+        <v>11.74230757824389</v>
       </c>
       <c r="F3">
-        <v>16.9652121375433</v>
+        <v>21.85824082136963</v>
       </c>
       <c r="G3">
-        <v>2.056758603558781</v>
+        <v>29.64321557287392</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.561625775083229</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.158329154306122</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.30831177569092</v>
       </c>
       <c r="K3">
-        <v>23.83095104044525</v>
+        <v>17.36861279467815</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19.21148659608859</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.02318876122145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.20357556649851</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.419070923482384</v>
+        <v>3.619593903400737</v>
       </c>
       <c r="D4">
-        <v>3.649365792822464</v>
+        <v>4.294674132617581</v>
       </c>
       <c r="E4">
-        <v>26.38259499501596</v>
+        <v>11.32132694947789</v>
       </c>
       <c r="F4">
-        <v>16.6071695835715</v>
+        <v>21.42219569767481</v>
       </c>
       <c r="G4">
-        <v>2.061547013549046</v>
+        <v>28.9711977433461</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.717237651868167</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.011560027290853</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.25718509508941</v>
       </c>
       <c r="K4">
-        <v>22.76375531124097</v>
+        <v>17.11307261314783</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>18.3721568696865</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.93341789360236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.48161549343447</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.28062977097765</v>
+        <v>3.528996425580433</v>
       </c>
       <c r="D5">
-        <v>3.625265058260987</v>
+        <v>4.277959064147314</v>
       </c>
       <c r="E5">
-        <v>25.78896517527156</v>
+        <v>11.14448743843762</v>
       </c>
       <c r="F5">
-        <v>16.46838461315853</v>
+        <v>21.22806757177077</v>
       </c>
       <c r="G5">
-        <v>2.063525905983263</v>
+        <v>28.66647569560412</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.782165399318245</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.950731195756301</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.23182219503625</v>
       </c>
       <c r="K5">
-        <v>22.31480927554935</v>
+        <v>16.99384483724626</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>18.01833679411947</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.90449901802534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.17821308837041</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.257384148699134</v>
+        <v>3.499934600519901</v>
       </c>
       <c r="D6">
-        <v>3.621256183825319</v>
+        <v>4.277207855424535</v>
       </c>
       <c r="E6">
-        <v>25.68943330129882</v>
+        <v>11.11404816678435</v>
       </c>
       <c r="F6">
-        <v>16.4457689049282</v>
+        <v>21.1757226338018</v>
       </c>
       <c r="G6">
-        <v>2.063856211587638</v>
+        <v>28.57931336040566</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.793344668653418</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.940862477967665</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.22107767565891</v>
       </c>
       <c r="K6">
-        <v>22.23941208673216</v>
+        <v>16.95578983824868</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>17.95852812990583</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.90014711637584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.12722279229517</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.417221094071871</v>
+        <v>3.581542435287938</v>
       </c>
       <c r="D7">
-        <v>3.649041240801409</v>
+        <v>4.300030025475666</v>
       </c>
       <c r="E7">
-        <v>26.37465321104524</v>
+        <v>11.31683238628846</v>
       </c>
       <c r="F7">
-        <v>16.60526907311441</v>
+        <v>21.36518454626965</v>
       </c>
       <c r="G7">
-        <v>2.061573587810348</v>
+        <v>28.86848717870713</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.71897679459997</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.011201130387691</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.23891178518668</v>
       </c>
       <c r="K7">
-        <v>22.75775763258688</v>
+        <v>17.06195661994149</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>18.36645891188947</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.93299742772165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.47739045826106</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.085451163831424</v>
+        <v>3.948640928610191</v>
       </c>
       <c r="D8">
-        <v>3.770515747446262</v>
+        <v>4.393240552641049</v>
       </c>
       <c r="E8">
-        <v>29.26161042828464</v>
+        <v>12.17294369154902</v>
       </c>
       <c r="F8">
-        <v>17.37161871519174</v>
+        <v>22.25367843169963</v>
       </c>
       <c r="G8">
-        <v>2.051738519110492</v>
+        <v>30.23080281759472</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.716389552603001</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.311236398097408</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.34244323025669</v>
       </c>
       <c r="K8">
-        <v>24.92185269997651</v>
+        <v>17.5766645879953</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>20.06662952197438</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.14635326089679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.9422555527352</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.266050497230125</v>
+        <v>4.625281089002418</v>
       </c>
       <c r="D9">
-        <v>4.00370143917829</v>
+        <v>4.557939708188284</v>
       </c>
       <c r="E9">
-        <v>34.46113460123612</v>
+        <v>13.70611024358494</v>
       </c>
       <c r="F9">
-        <v>19.0978881241961</v>
+        <v>24.07413785579354</v>
       </c>
       <c r="G9">
-        <v>2.033186363051754</v>
+        <v>33.01395726860255</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.289948950221101</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.866886049294237</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.60599295494722</v>
       </c>
       <c r="K9">
-        <v>28.72752331459286</v>
+        <v>18.65966472257638</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>23.03994854821171</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.83576345764066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.5225891310374</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.057898537313081</v>
+        <v>5.087709992601655</v>
       </c>
       <c r="D10">
-        <v>4.171415404834771</v>
+        <v>4.706175234644169</v>
       </c>
       <c r="E10">
-        <v>38.03190200904383</v>
+        <v>14.22291920185066</v>
       </c>
       <c r="F10">
-        <v>20.5008911307585</v>
+        <v>25.125092050499</v>
       </c>
       <c r="G10">
-        <v>2.019874814267973</v>
+        <v>34.53307275116099</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.668050920995637</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.250860766112089</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.72103238959101</v>
       </c>
       <c r="K10">
-        <v>31.26305540404657</v>
+        <v>19.24679639876366</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>25.0627387860844</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.52638406401379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.98252443724807</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.402593188856558</v>
+        <v>5.582921483251268</v>
       </c>
       <c r="D11">
-        <v>4.246889064359443</v>
+        <v>5.068821227568141</v>
       </c>
       <c r="E11">
-        <v>39.61053226150077</v>
+        <v>10.41836347289051</v>
       </c>
       <c r="F11">
-        <v>21.26221192938083</v>
+        <v>23.42547151967826</v>
       </c>
       <c r="G11">
-        <v>2.01385529138427</v>
+        <v>31.34818908459663</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.337355311569544</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.377860627801436</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.983999221184712</v>
       </c>
       <c r="K11">
-        <v>32.36180756056606</v>
+        <v>17.94252251577295</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>26.43469466021128</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.8837915516772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.4154230420908</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.530966664273405</v>
+        <v>5.9662685530508</v>
       </c>
       <c r="D12">
-        <v>4.275352984893856</v>
+        <v>5.370234134665123</v>
       </c>
       <c r="E12">
-        <v>40.20255223530535</v>
+        <v>8.158179077585366</v>
       </c>
       <c r="F12">
-        <v>21.5815848103971</v>
+        <v>21.81870322620371</v>
       </c>
       <c r="G12">
-        <v>2.011577878189013</v>
+        <v>28.43059470414309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.447870284197375</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.412857269685675</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.362925450453046</v>
       </c>
       <c r="K12">
-        <v>32.7701916203261</v>
+        <v>16.77673581350388</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>27.19303788728266</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.12643930606431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.77375468954261</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.503413674346053</v>
+        <v>6.255210166051363</v>
       </c>
       <c r="D13">
-        <v>4.269227867398711</v>
+        <v>5.646589699832858</v>
       </c>
       <c r="E13">
-        <v>40.07529284536643</v>
+        <v>7.818333419537988</v>
       </c>
       <c r="F13">
-        <v>21.5127553844581</v>
+        <v>20.07291646080122</v>
       </c>
       <c r="G13">
-        <v>2.012068322852601</v>
+        <v>25.33352329801555</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.684377459765142</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.379352420365112</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.765373374083726</v>
       </c>
       <c r="K13">
-        <v>32.68257780169012</v>
+        <v>15.559873475154</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>27.5473420218495</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.0736947918086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.92375928197056</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.413197272287292</v>
+        <v>6.411632682244147</v>
       </c>
       <c r="D14">
-        <v>4.249233113375049</v>
+        <v>5.833366784411281</v>
       </c>
       <c r="E14">
-        <v>39.659348783003</v>
+        <v>8.874899660382098</v>
       </c>
       <c r="F14">
-        <v>21.28846610008787</v>
+        <v>18.7602378568403</v>
       </c>
       <c r="G14">
-        <v>2.013667905502287</v>
+        <v>23.03222067280563</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.593150350385392</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.325898436742198</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.357994027847948</v>
       </c>
       <c r="K14">
-        <v>32.39555860103374</v>
+        <v>14.67021274424336</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>27.61819144992945</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90193194396617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.5083693698943</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.35765889822507</v>
+        <v>6.416756427301995</v>
       </c>
       <c r="D15">
-        <v>4.236970729388736</v>
+        <v>5.872816151324812</v>
       </c>
       <c r="E15">
-        <v>39.40384503638128</v>
+        <v>9.248005959657213</v>
       </c>
       <c r="F15">
-        <v>21.15121655401772</v>
+        <v>18.39345449633974</v>
       </c>
       <c r="G15">
-        <v>2.014647863340236</v>
+        <v>22.40137687933118</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.800131040019558</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.297471733398138</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.259424152468466</v>
       </c>
       <c r="K15">
-        <v>32.21875516743449</v>
+        <v>14.427821540863</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>27.54805742362114</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.83526989355675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.1150715070115</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.035066028012457</v>
+        <v>6.176010371414222</v>
       </c>
       <c r="D16">
-        <v>4.166466553274586</v>
+        <v>5.759471855325402</v>
       </c>
       <c r="E16">
-        <v>37.92788065158614</v>
+        <v>8.975942068011685</v>
       </c>
       <c r="F16">
-        <v>20.45785764879128</v>
+        <v>18.17475489993328</v>
       </c>
       <c r="G16">
-        <v>2.02026867011879</v>
+        <v>22.14461242729189</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.523490305157622</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.14146075438878</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.317517034632193</v>
       </c>
       <c r="K16">
-        <v>31.19016340806532</v>
+        <v>14.35638803781439</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>26.68118646141338</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.5039166899351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.7411721860262</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.833243023644984</v>
+        <v>5.896528919987361</v>
       </c>
       <c r="D17">
-        <v>4.123004167466063</v>
+        <v>5.568605178293365</v>
       </c>
       <c r="E17">
-        <v>37.01124801019704</v>
+        <v>7.997413976244373</v>
       </c>
       <c r="F17">
-        <v>20.08400301749775</v>
+        <v>18.72841300870296</v>
       </c>
       <c r="G17">
-        <v>2.023723966230747</v>
+        <v>23.21541003670836</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.777397299559112</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.049549425600075</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.576137226431976</v>
       </c>
       <c r="K17">
-        <v>30.54526789484488</v>
+        <v>14.7808866344995</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>25.96015452283725</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.31188519747477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.24210341207877</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.715693857703526</v>
+        <v>5.585712816416487</v>
       </c>
       <c r="D18">
-        <v>4.097928178076123</v>
+        <v>5.294541289534151</v>
       </c>
       <c r="E18">
-        <v>36.47966663211536</v>
+        <v>7.383621286489833</v>
       </c>
       <c r="F18">
-        <v>19.87172652950584</v>
+        <v>20.04250599791414</v>
       </c>
       <c r="G18">
-        <v>2.025714955407509</v>
+        <v>25.61118478137314</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.588227150352641</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.00543550270774</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.054965667550537</v>
       </c>
       <c r="K18">
-        <v>30.16918318757346</v>
+        <v>15.71842772396253</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>25.29752950266142</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.20549139107309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.55888668530039</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.675639727101874</v>
+        <v>5.229363620824798</v>
       </c>
       <c r="D19">
-        <v>4.089424579833781</v>
+        <v>5.010501873999428</v>
       </c>
       <c r="E19">
-        <v>36.29891109079158</v>
+        <v>8.941018918141616</v>
       </c>
       <c r="F19">
-        <v>19.80032578628868</v>
+        <v>21.77047626808202</v>
       </c>
       <c r="G19">
-        <v>2.026389776205959</v>
+        <v>28.71622607854033</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.307862722291667</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.011763126529773</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.65889411902827</v>
       </c>
       <c r="K19">
-        <v>30.0409566149777</v>
+        <v>16.92389445280406</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>24.7441395505543</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.17015795640436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.41197522477146</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.854878608313459</v>
+        <v>4.884916604138362</v>
       </c>
       <c r="D20">
-        <v>4.12763884404003</v>
+        <v>4.686886372279753</v>
       </c>
       <c r="E20">
-        <v>37.1092707572181</v>
+        <v>14.05995735886439</v>
       </c>
       <c r="F20">
-        <v>20.12351516596256</v>
+        <v>24.69147378786369</v>
       </c>
       <c r="G20">
-        <v>2.023355793423963</v>
+        <v>33.85316227622318</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.565478406859517</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.152569395896427</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.63256050627591</v>
       </c>
       <c r="K20">
-        <v>30.6144507657417</v>
+        <v>18.94622933772254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>24.54696794619248</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.3319056263756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.59657407170667</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.439753849865644</v>
+        <v>5.18571438203221</v>
       </c>
       <c r="D21">
-        <v>4.255109177858126</v>
+        <v>4.749361226889104</v>
       </c>
       <c r="E21">
-        <v>39.78167133170534</v>
+        <v>15.23516021749891</v>
       </c>
       <c r="F21">
-        <v>21.35431706237813</v>
+        <v>25.90671209241161</v>
       </c>
       <c r="G21">
-        <v>2.013198040604488</v>
+        <v>35.74484827165013</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.885982407965109</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.450482410197076</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.87779600067674</v>
       </c>
       <c r="K21">
-        <v>32.48007029811215</v>
+        <v>19.69656110109331</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>25.94077197460065</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.95234335745939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.06019988064053</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.809484448559818</v>
+        <v>5.424796979385476</v>
       </c>
       <c r="D22">
-        <v>4.337744628081346</v>
+        <v>4.797066283868516</v>
       </c>
       <c r="E22">
-        <v>41.49505208398183</v>
+        <v>15.72108066355687</v>
       </c>
       <c r="F22">
-        <v>22.2858915015748</v>
+        <v>26.62654847141122</v>
       </c>
       <c r="G22">
-        <v>2.00656954937874</v>
+        <v>36.8460688209456</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.08096404259862</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.638944196391762</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.01769386227311</v>
       </c>
       <c r="K22">
-        <v>33.65463731944591</v>
+        <v>20.14895484714598</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>26.84363573215975</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.66705024684471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.85200054230431</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.613270354405085</v>
+        <v>5.328836433492283</v>
       </c>
       <c r="D23">
-        <v>4.293700403091542</v>
+        <v>4.76498223037688</v>
       </c>
       <c r="E23">
-        <v>40.58332797568266</v>
+        <v>15.46512484495087</v>
       </c>
       <c r="F23">
-        <v>21.78809741051606</v>
+        <v>26.29604789199194</v>
       </c>
       <c r="G23">
-        <v>2.010107510072162</v>
+        <v>36.35395464662107</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.978043367190354</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.538006767419636</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.96231113728795</v>
       </c>
       <c r="K23">
-        <v>33.03177774206925</v>
+        <v>19.95863685995879</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>26.36623082703963</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.28478649833598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.4326305019986</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.845101895783927</v>
+        <v>4.899295377369248</v>
       </c>
       <c r="D24">
-        <v>4.125543783685334</v>
+        <v>4.651906105278809</v>
       </c>
       <c r="E24">
-        <v>37.06496905104435</v>
+        <v>14.45970070180899</v>
       </c>
       <c r="F24">
-        <v>20.10564344919122</v>
+        <v>24.95252940390134</v>
       </c>
       <c r="G24">
-        <v>2.023522230123687</v>
+        <v>34.32342152046676</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.580552725284462</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.150777610839261</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.73028726975935</v>
       </c>
       <c r="K24">
-        <v>30.58318979087162</v>
+        <v>19.15388188372299</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>24.47832271266189</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.32284192491309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.77892685870816</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.960207162300962</v>
+        <v>4.397862808257832</v>
       </c>
       <c r="D25">
-        <v>3.941225306241106</v>
+        <v>4.524542622022291</v>
       </c>
       <c r="E25">
-        <v>33.10086081421562</v>
+        <v>13.30419432233608</v>
       </c>
       <c r="F25">
-        <v>18.60714392018389</v>
+        <v>23.4947722376461</v>
       </c>
       <c r="G25">
-        <v>2.038139074189577</v>
+        <v>32.10798902158149</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.137132214110017</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.720495187217866</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.50010134708483</v>
       </c>
       <c r="K25">
-        <v>27.74428647801982</v>
+        <v>18.2848102349959</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>22.2727244784363</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.61813316869781</v>
+        <v>19.85565203862135</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.088171057771214</v>
+        <v>2.778289159144612</v>
       </c>
       <c r="D2">
-        <v>4.410013019206597</v>
+        <v>4.637116511806209</v>
       </c>
       <c r="E2">
-        <v>12.39761686812829</v>
+        <v>12.3342790850552</v>
       </c>
       <c r="F2">
-        <v>22.56715404792056</v>
+        <v>20.70484947838119</v>
       </c>
       <c r="G2">
-        <v>30.72902136325599</v>
+        <v>26.82627485936906</v>
       </c>
       <c r="H2">
-        <v>1.799099365543919</v>
+        <v>1.772609302094584</v>
       </c>
       <c r="I2">
-        <v>3.390312655802507</v>
+        <v>3.355639361264322</v>
       </c>
       <c r="J2">
-        <v>10.39729435152146</v>
+        <v>10.22134046049544</v>
       </c>
       <c r="K2">
-        <v>17.78312956597645</v>
+        <v>16.03040424511682</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.06009904895594</v>
       </c>
       <c r="M2">
-        <v>20.50400247621914</v>
+        <v>9.957528324541268</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.31969992770872</v>
+        <v>20.47477251920127</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.31346952610582</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.805957839154256</v>
+        <v>2.576923027736513</v>
       </c>
       <c r="D3">
-        <v>4.339162745907436</v>
+        <v>4.514850831754035</v>
       </c>
       <c r="E3">
-        <v>11.74230757824389</v>
+        <v>11.71314157802595</v>
       </c>
       <c r="F3">
-        <v>21.85824082136963</v>
+        <v>20.21743220505391</v>
       </c>
       <c r="G3">
-        <v>29.64321557287392</v>
+        <v>26.15111319830949</v>
       </c>
       <c r="H3">
-        <v>1.561625775083229</v>
+        <v>1.573770475147378</v>
       </c>
       <c r="I3">
-        <v>3.158329154306122</v>
+        <v>3.161817929665778</v>
       </c>
       <c r="J3">
-        <v>10.30831177569092</v>
+        <v>10.16830267049378</v>
       </c>
       <c r="K3">
-        <v>17.36861279467815</v>
+        <v>15.81185180346714</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.06646017664118</v>
       </c>
       <c r="M3">
-        <v>19.21148659608859</v>
+        <v>9.565372341196877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.20357556649851</v>
+        <v>19.19811852195913</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.20103406343216</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.619593903400737</v>
+        <v>2.447064103416611</v>
       </c>
       <c r="D4">
-        <v>4.294674132617581</v>
+        <v>4.438342566318439</v>
       </c>
       <c r="E4">
-        <v>11.32132694947789</v>
+        <v>11.31460046442433</v>
       </c>
       <c r="F4">
-        <v>21.42219569767481</v>
+        <v>19.91995586223024</v>
       </c>
       <c r="G4">
-        <v>28.9711977433461</v>
+        <v>25.74264140353167</v>
       </c>
       <c r="H4">
-        <v>1.717237651868167</v>
+        <v>1.719983739622288</v>
       </c>
       <c r="I4">
-        <v>3.011560027290853</v>
+        <v>3.039208696457046</v>
       </c>
       <c r="J4">
-        <v>10.25718509508941</v>
+        <v>10.13640684745277</v>
       </c>
       <c r="K4">
-        <v>17.11307261314783</v>
+        <v>15.67729006307592</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.06568471748819</v>
       </c>
       <c r="M4">
-        <v>18.3721568696865</v>
+        <v>9.34156448597632</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.48161549343447</v>
+        <v>18.36908283570831</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.4810773748862</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.528996425580433</v>
+        <v>2.383108842552432</v>
       </c>
       <c r="D5">
-        <v>4.277959064147314</v>
+        <v>4.408721925927787</v>
       </c>
       <c r="E5">
-        <v>11.14448743843762</v>
+        <v>11.14738320630829</v>
       </c>
       <c r="F5">
-        <v>21.22806757177077</v>
+        <v>19.78465695064008</v>
       </c>
       <c r="G5">
-        <v>28.66647569560412</v>
+        <v>25.55106910424675</v>
       </c>
       <c r="H5">
-        <v>1.782165399318245</v>
+        <v>1.7809932205621</v>
       </c>
       <c r="I5">
-        <v>2.950731195756301</v>
+        <v>2.988724882429321</v>
       </c>
       <c r="J5">
-        <v>10.23182219503625</v>
+        <v>10.11895393760401</v>
       </c>
       <c r="K5">
-        <v>16.99384483724626</v>
+        <v>15.60951973174272</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.05402584603391</v>
       </c>
       <c r="M5">
-        <v>18.01833679411947</v>
+        <v>9.245620813002853</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.17821308837041</v>
+        <v>18.01965905842597</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.17843616313569</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.499934600519901</v>
+        <v>2.360931457690351</v>
       </c>
       <c r="D6">
-        <v>4.277207855424535</v>
+        <v>4.40611185756051</v>
       </c>
       <c r="E6">
-        <v>11.11404816678435</v>
+        <v>11.1186775909722</v>
       </c>
       <c r="F6">
-        <v>21.1757226338018</v>
+        <v>19.74437177291104</v>
       </c>
       <c r="G6">
-        <v>28.57931336040566</v>
+        <v>25.48672480162663</v>
       </c>
       <c r="H6">
-        <v>1.793344668653418</v>
+        <v>1.791473271964347</v>
       </c>
       <c r="I6">
-        <v>2.940862477967665</v>
+        <v>2.981001725640147</v>
       </c>
       <c r="J6">
-        <v>10.22107767565891</v>
+        <v>10.1104278771353</v>
       </c>
       <c r="K6">
-        <v>16.95578983824868</v>
+        <v>15.58256303098399</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.03962633400062</v>
       </c>
       <c r="M6">
-        <v>17.95852812990583</v>
+        <v>9.218377342444095</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.12722279229517</v>
+        <v>17.96064172288333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.12757714757812</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.581542435287938</v>
+        <v>2.424491883473113</v>
       </c>
       <c r="D7">
-        <v>4.300030025475666</v>
+        <v>4.44820823748795</v>
       </c>
       <c r="E7">
-        <v>11.31683238628846</v>
+        <v>11.30946062760622</v>
       </c>
       <c r="F7">
-        <v>21.36518454626965</v>
+        <v>19.84037965975199</v>
       </c>
       <c r="G7">
-        <v>28.86848717870713</v>
+        <v>25.71572796329977</v>
       </c>
       <c r="H7">
-        <v>1.71897679459997</v>
+        <v>1.721986845332589</v>
       </c>
       <c r="I7">
-        <v>3.011201130387691</v>
+        <v>3.039355271240501</v>
       </c>
       <c r="J7">
-        <v>10.23891178518668</v>
+        <v>10.0717923445286</v>
       </c>
       <c r="K7">
-        <v>17.06195661994149</v>
+        <v>15.61510235455429</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.01789365795202</v>
       </c>
       <c r="M7">
-        <v>18.36645891188947</v>
+        <v>9.294035135633841</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.47739045826106</v>
+        <v>18.36309026627196</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.47680086691285</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.948640928610191</v>
+        <v>2.699785067835762</v>
       </c>
       <c r="D8">
-        <v>4.393240552641049</v>
+        <v>4.616735870858419</v>
       </c>
       <c r="E8">
-        <v>12.17294369154902</v>
+        <v>12.1183249456373</v>
       </c>
       <c r="F8">
-        <v>22.25367843169963</v>
+        <v>20.38038128254084</v>
       </c>
       <c r="G8">
-        <v>30.23080281759472</v>
+        <v>26.68697795116722</v>
       </c>
       <c r="H8">
-        <v>1.716389552603001</v>
+        <v>1.693751556399483</v>
       </c>
       <c r="I8">
-        <v>3.311236398097408</v>
+        <v>3.288737172597541</v>
       </c>
       <c r="J8">
-        <v>10.34244323025669</v>
+        <v>10.02311592946996</v>
       </c>
       <c r="K8">
-        <v>17.5766645879953</v>
+        <v>15.83987299176991</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.97734549360692</v>
       </c>
       <c r="M8">
-        <v>20.06662952197438</v>
+        <v>9.728073412696787</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.9422555527352</v>
+        <v>20.04149083337755</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.93708934429728</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.625281089002418</v>
+        <v>3.206690142442516</v>
       </c>
       <c r="D9">
-        <v>4.557939708188284</v>
+        <v>4.908951250161692</v>
       </c>
       <c r="E9">
-        <v>13.70611024358494</v>
+        <v>13.57290585221762</v>
       </c>
       <c r="F9">
-        <v>24.07413785579354</v>
+        <v>21.64193864446866</v>
       </c>
       <c r="G9">
-        <v>33.01395726860255</v>
+        <v>28.54986981885809</v>
       </c>
       <c r="H9">
-        <v>2.289948950221101</v>
+        <v>2.231291465754885</v>
       </c>
       <c r="I9">
-        <v>3.866886049294237</v>
+        <v>3.751343857691761</v>
       </c>
       <c r="J9">
-        <v>10.60599295494722</v>
+        <v>10.13670633996083</v>
       </c>
       <c r="K9">
-        <v>18.65966472257638</v>
+        <v>16.42001289676517</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.96833443586099</v>
       </c>
       <c r="M9">
-        <v>23.03994854821171</v>
+        <v>10.80601467824522</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.5225891310374</v>
+        <v>22.97724206901545</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.50644682095032</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.087709992601655</v>
+        <v>3.621172381811652</v>
       </c>
       <c r="D10">
-        <v>4.706175234644169</v>
+        <v>5.172651468899987</v>
       </c>
       <c r="E10">
-        <v>14.22291920185066</v>
+        <v>14.02965413123131</v>
       </c>
       <c r="F10">
-        <v>25.125092050499</v>
+        <v>22.19424800006508</v>
       </c>
       <c r="G10">
-        <v>34.53307275116099</v>
+        <v>29.8580472868961</v>
       </c>
       <c r="H10">
-        <v>2.668050920995637</v>
+        <v>2.582556207874664</v>
       </c>
       <c r="I10">
-        <v>4.250860766112089</v>
+        <v>4.068593148583338</v>
       </c>
       <c r="J10">
-        <v>10.72103238959101</v>
+        <v>9.882782605804449</v>
       </c>
       <c r="K10">
-        <v>19.24679639876366</v>
+        <v>16.5908761342421</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.7665446588307</v>
       </c>
       <c r="M10">
-        <v>25.0627387860844</v>
+        <v>11.43319614446075</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.98252443724807</v>
+        <v>24.97261833510517</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.95668179548544</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.582921483251268</v>
+        <v>4.247499417055646</v>
       </c>
       <c r="D11">
-        <v>5.068821227568141</v>
+        <v>5.641711265531082</v>
       </c>
       <c r="E11">
-        <v>10.41836347289051</v>
+        <v>10.13930384934419</v>
       </c>
       <c r="F11">
-        <v>23.42547151967826</v>
+        <v>20.33466988624106</v>
       </c>
       <c r="G11">
-        <v>31.34818908459663</v>
+        <v>27.66504840145357</v>
       </c>
       <c r="H11">
-        <v>3.337355311569544</v>
+        <v>3.26378775571726</v>
       </c>
       <c r="I11">
-        <v>4.377860627801436</v>
+        <v>4.173500423999005</v>
       </c>
       <c r="J11">
-        <v>9.983999221184712</v>
+        <v>8.778534240391062</v>
       </c>
       <c r="K11">
-        <v>17.94252251577295</v>
+        <v>15.26990773296608</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.73633784279234</v>
       </c>
       <c r="M11">
-        <v>26.43469466021128</v>
+        <v>10.56481144512037</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.4154230420908</v>
+        <v>26.33630065632316</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.38925083390355</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.9662685530508</v>
+        <v>4.74646961806057</v>
       </c>
       <c r="D12">
-        <v>5.370234134665123</v>
+        <v>5.983643485384508</v>
       </c>
       <c r="E12">
-        <v>8.158179077585366</v>
+        <v>7.807631210390083</v>
       </c>
       <c r="F12">
-        <v>21.81870322620371</v>
+        <v>18.78450467230412</v>
       </c>
       <c r="G12">
-        <v>28.43059470414309</v>
+        <v>25.41172104751845</v>
       </c>
       <c r="H12">
-        <v>4.447870284197375</v>
+        <v>4.393589300662377</v>
       </c>
       <c r="I12">
-        <v>4.412857269685675</v>
+        <v>4.20248765527274</v>
       </c>
       <c r="J12">
-        <v>9.362925450453046</v>
+        <v>8.143024723927562</v>
       </c>
       <c r="K12">
-        <v>16.77673581350388</v>
+        <v>14.23797734317927</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.01305260979941</v>
       </c>
       <c r="M12">
-        <v>27.19303788728266</v>
+        <v>9.78153950214257</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.77375468954261</v>
+        <v>27.09362033444172</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.74979759571983</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.255210166051363</v>
+        <v>5.135282052831274</v>
       </c>
       <c r="D13">
-        <v>5.646589699832858</v>
+        <v>6.240018741801113</v>
       </c>
       <c r="E13">
-        <v>7.818333419537988</v>
+        <v>7.483439635178712</v>
       </c>
       <c r="F13">
-        <v>20.07291646080122</v>
+        <v>17.34279444431263</v>
       </c>
       <c r="G13">
-        <v>25.33352329801555</v>
+        <v>22.64317835565856</v>
       </c>
       <c r="H13">
-        <v>5.684377459765142</v>
+        <v>5.645599786407202</v>
       </c>
       <c r="I13">
-        <v>4.379352420365112</v>
+        <v>4.177598290729436</v>
       </c>
       <c r="J13">
-        <v>8.765373374083726</v>
+        <v>7.834551302495528</v>
       </c>
       <c r="K13">
-        <v>15.559873475154</v>
+        <v>13.33242590615801</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.44645307779091</v>
       </c>
       <c r="M13">
-        <v>27.5473420218495</v>
+        <v>8.985726574121184</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.92375928197056</v>
+        <v>27.45311797861988</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.90390148152707</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.411632682244147</v>
+        <v>5.357386669712132</v>
       </c>
       <c r="D14">
-        <v>5.833366784411281</v>
+        <v>6.383962088984324</v>
       </c>
       <c r="E14">
-        <v>8.874899660382098</v>
+        <v>8.607757389722266</v>
       </c>
       <c r="F14">
-        <v>18.7602378568403</v>
+        <v>16.35719277027618</v>
       </c>
       <c r="G14">
-        <v>23.03222067280563</v>
+        <v>20.43399899362112</v>
       </c>
       <c r="H14">
-        <v>6.593150350385392</v>
+        <v>6.562875080000541</v>
       </c>
       <c r="I14">
-        <v>4.325898436742198</v>
+        <v>4.136869864352439</v>
       </c>
       <c r="J14">
-        <v>8.357994027847948</v>
+        <v>7.733150791201697</v>
       </c>
       <c r="K14">
-        <v>14.67021274424336</v>
+        <v>12.74125185359412</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.10695490302286</v>
       </c>
       <c r="M14">
-        <v>27.61819144992945</v>
+        <v>8.408137644206541</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.5083693698943</v>
+        <v>27.5302833292411</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.49196340955568</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.416756427301995</v>
+        <v>5.375556841912893</v>
       </c>
       <c r="D15">
-        <v>5.872816151324812</v>
+        <v>6.401740312654081</v>
       </c>
       <c r="E15">
-        <v>9.248005959657213</v>
+        <v>9.002342199223566</v>
       </c>
       <c r="F15">
-        <v>18.39345449633974</v>
+        <v>16.1198144282143</v>
       </c>
       <c r="G15">
-        <v>22.40137687933118</v>
+        <v>19.77091483613628</v>
       </c>
       <c r="H15">
-        <v>6.800131040019558</v>
+        <v>6.772126716179469</v>
       </c>
       <c r="I15">
-        <v>4.297471733398138</v>
+        <v>4.115277080000709</v>
       </c>
       <c r="J15">
-        <v>8.259424152468466</v>
+        <v>7.750890697070727</v>
       </c>
       <c r="K15">
-        <v>14.427821540863</v>
+        <v>12.60649245620504</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.0408644823334</v>
       </c>
       <c r="M15">
-        <v>27.54805742362114</v>
+        <v>8.251730173072557</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.1150715070115</v>
+        <v>27.4631002861671</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.09980546008695</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.176010371414222</v>
+        <v>5.091691301798043</v>
       </c>
       <c r="D16">
-        <v>5.759471855325402</v>
+        <v>6.19886636165468</v>
       </c>
       <c r="E16">
-        <v>8.975942068011685</v>
+        <v>8.76526276949647</v>
       </c>
       <c r="F16">
-        <v>18.17475489993328</v>
+        <v>16.29722857752908</v>
       </c>
       <c r="G16">
-        <v>22.14461242729189</v>
+        <v>19.06178708081987</v>
       </c>
       <c r="H16">
-        <v>6.523490305157622</v>
+        <v>6.500467945687929</v>
       </c>
       <c r="I16">
-        <v>4.14146075438878</v>
+        <v>3.990928272131101</v>
       </c>
       <c r="J16">
-        <v>8.317517034632193</v>
+        <v>8.169804207352202</v>
       </c>
       <c r="K16">
-        <v>14.35638803781439</v>
+        <v>12.80288315342972</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.26388826434438</v>
       </c>
       <c r="M16">
-        <v>26.68118646141338</v>
+        <v>8.214897049256065</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.7411721860262</v>
+        <v>26.60940600686709</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.72883764923071</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.896528919987361</v>
+        <v>4.752193428918983</v>
       </c>
       <c r="D17">
-        <v>5.568605178293365</v>
+        <v>5.972422705375222</v>
       </c>
       <c r="E17">
-        <v>7.997413976244373</v>
+        <v>7.781378117358249</v>
       </c>
       <c r="F17">
-        <v>18.72841300870296</v>
+        <v>16.93814589408778</v>
       </c>
       <c r="G17">
-        <v>23.21541003670836</v>
+        <v>19.81815599148201</v>
       </c>
       <c r="H17">
-        <v>5.777397299559112</v>
+        <v>5.754649940687484</v>
       </c>
       <c r="I17">
-        <v>4.049549425600075</v>
+        <v>3.916136988384256</v>
       </c>
       <c r="J17">
-        <v>8.576137226431976</v>
+        <v>8.535286066883902</v>
       </c>
       <c r="K17">
-        <v>14.7808866344995</v>
+        <v>13.2508258225886</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.61403103878192</v>
       </c>
       <c r="M17">
-        <v>25.96015452283725</v>
+        <v>8.481144176232815</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.24210341207877</v>
+        <v>25.89482585254714</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.23038622413571</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.585712816416487</v>
+        <v>4.344980857992633</v>
       </c>
       <c r="D18">
-        <v>5.294541289534151</v>
+        <v>5.690610574612514</v>
       </c>
       <c r="E18">
-        <v>7.383621286489833</v>
+        <v>7.149799542018252</v>
       </c>
       <c r="F18">
-        <v>20.04250599791414</v>
+        <v>18.13615539750014</v>
       </c>
       <c r="G18">
-        <v>25.61118478137314</v>
+        <v>21.83709081387446</v>
       </c>
       <c r="H18">
-        <v>4.588227150352641</v>
+        <v>4.560332515315819</v>
       </c>
       <c r="I18">
-        <v>4.00543550270774</v>
+        <v>3.877482834804783</v>
       </c>
       <c r="J18">
-        <v>9.054965667550537</v>
+        <v>8.977074730714635</v>
       </c>
       <c r="K18">
-        <v>15.71842772396253</v>
+        <v>14.03694328933338</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.16999630336117</v>
       </c>
       <c r="M18">
-        <v>25.29752950266142</v>
+        <v>9.085994190929684</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.55888668530039</v>
+        <v>25.23371080941639</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.54609102595998</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.229363620824798</v>
+        <v>3.887208398511328</v>
       </c>
       <c r="D19">
-        <v>5.010501873999428</v>
+        <v>5.409434273166843</v>
       </c>
       <c r="E19">
-        <v>8.941018918141616</v>
+        <v>8.733012181747499</v>
       </c>
       <c r="F19">
-        <v>21.77047626808202</v>
+        <v>19.63035004143571</v>
       </c>
       <c r="G19">
-        <v>28.71622607854033</v>
+        <v>24.50923349181479</v>
       </c>
       <c r="H19">
-        <v>3.307862722291667</v>
+        <v>3.265794639264159</v>
       </c>
       <c r="I19">
-        <v>4.011763126529773</v>
+        <v>3.8814276196605</v>
       </c>
       <c r="J19">
-        <v>9.65889411902827</v>
+        <v>9.46482496296637</v>
       </c>
       <c r="K19">
-        <v>16.92389445280406</v>
+        <v>14.99144712045066</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.82586069477787</v>
       </c>
       <c r="M19">
-        <v>24.7441395505543</v>
+        <v>9.867659929762034</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.41197522477146</v>
+        <v>24.67765669077115</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.3967006939395</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.884916604138362</v>
+        <v>3.435049173895288</v>
       </c>
       <c r="D20">
-        <v>4.686886372279753</v>
+        <v>5.111467430962581</v>
       </c>
       <c r="E20">
-        <v>14.05995735886439</v>
+        <v>13.88578958823424</v>
       </c>
       <c r="F20">
-        <v>24.69147378786369</v>
+        <v>21.99908067995052</v>
       </c>
       <c r="G20">
-        <v>33.85316227622318</v>
+        <v>29.05183163573402</v>
       </c>
       <c r="H20">
-        <v>2.565478406859517</v>
+        <v>2.488572861740454</v>
       </c>
       <c r="I20">
-        <v>4.152569395896427</v>
+        <v>3.993529666031288</v>
       </c>
       <c r="J20">
-        <v>10.63256050627591</v>
+        <v>10.06640960777034</v>
       </c>
       <c r="K20">
-        <v>18.94622933772254</v>
+        <v>16.47990051734401</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.77411764238462</v>
       </c>
       <c r="M20">
-        <v>24.54696794619248</v>
+        <v>11.21239130451424</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.59657407170667</v>
+        <v>24.46572545466989</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.57388037902417</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.18571438203221</v>
+        <v>3.793236869069346</v>
       </c>
       <c r="D21">
-        <v>4.749361226889104</v>
+        <v>5.331469154860319</v>
       </c>
       <c r="E21">
-        <v>15.23516021749891</v>
+        <v>15.00959817833229</v>
       </c>
       <c r="F21">
-        <v>25.90671209241161</v>
+        <v>22.3064220598398</v>
       </c>
       <c r="G21">
-        <v>35.74484827165013</v>
+        <v>31.77385878876907</v>
       </c>
       <c r="H21">
-        <v>2.885982407965109</v>
+        <v>2.781308632110112</v>
       </c>
       <c r="I21">
-        <v>4.450482410197076</v>
+        <v>4.228457421483797</v>
       </c>
       <c r="J21">
-        <v>10.87779600067674</v>
+        <v>9.168310760043221</v>
       </c>
       <c r="K21">
-        <v>19.69656110109331</v>
+        <v>16.53916814560834</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.5697364980515</v>
       </c>
       <c r="M21">
-        <v>25.94077197460065</v>
+        <v>11.6418003528555</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.06019988064053</v>
+        <v>25.8313381347161</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.026698482814</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.424796979385476</v>
+        <v>4.073042952449167</v>
       </c>
       <c r="D22">
-        <v>4.797066283868516</v>
+        <v>5.488259433775012</v>
       </c>
       <c r="E22">
-        <v>15.72108066355687</v>
+        <v>15.4613346707754</v>
       </c>
       <c r="F22">
-        <v>26.62654847141122</v>
+        <v>22.42498097013451</v>
       </c>
       <c r="G22">
-        <v>36.8460688209456</v>
+        <v>33.51656129033763</v>
       </c>
       <c r="H22">
-        <v>3.08096404259862</v>
+        <v>2.958654500118328</v>
       </c>
       <c r="I22">
-        <v>4.638944196391762</v>
+        <v>4.375518386708544</v>
       </c>
       <c r="J22">
-        <v>11.01769386227311</v>
+        <v>8.55405845606076</v>
       </c>
       <c r="K22">
-        <v>20.14895484714598</v>
+        <v>16.5341865946548</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.40649942001975</v>
       </c>
       <c r="M22">
-        <v>26.84363573215975</v>
+        <v>11.8897984289622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.85200054230431</v>
+        <v>26.71628570529116</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.81116761311521</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.328836433492283</v>
+        <v>3.931724587758238</v>
       </c>
       <c r="D23">
-        <v>4.76498223037688</v>
+        <v>5.386356507859159</v>
       </c>
       <c r="E23">
-        <v>15.46512484495087</v>
+        <v>15.22455615606227</v>
       </c>
       <c r="F23">
-        <v>26.29604789199194</v>
+        <v>22.47447070283622</v>
       </c>
       <c r="G23">
-        <v>36.35395464662107</v>
+        <v>32.52446707798344</v>
       </c>
       <c r="H23">
-        <v>2.978043367190354</v>
+        <v>2.865662511289456</v>
       </c>
       <c r="I23">
-        <v>4.538006767419636</v>
+        <v>4.29629210999996</v>
       </c>
       <c r="J23">
-        <v>10.96231113728795</v>
+        <v>8.995758344563685</v>
       </c>
       <c r="K23">
-        <v>19.95863685995879</v>
+        <v>16.62400709778565</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.55222143373045</v>
       </c>
       <c r="M23">
-        <v>26.36623082703963</v>
+        <v>11.82885629860525</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.4326305019986</v>
+        <v>26.24894538503875</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.39593111812086</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.899295377369248</v>
+        <v>3.429373078957457</v>
       </c>
       <c r="D24">
-        <v>4.651906105278809</v>
+        <v>5.071659481219666</v>
       </c>
       <c r="E24">
-        <v>14.45970070180899</v>
+        <v>14.28842099806895</v>
       </c>
       <c r="F24">
-        <v>24.95252940390134</v>
+        <v>22.23289637009111</v>
       </c>
       <c r="G24">
-        <v>34.32342152046676</v>
+        <v>29.45776357432814</v>
       </c>
       <c r="H24">
-        <v>2.580552725284462</v>
+        <v>2.503103741956261</v>
       </c>
       <c r="I24">
-        <v>4.150777610839261</v>
+        <v>3.989226119164659</v>
       </c>
       <c r="J24">
-        <v>10.73028726975935</v>
+        <v>10.15359842695504</v>
       </c>
       <c r="K24">
-        <v>19.15388188372299</v>
+        <v>16.6549968225945</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.89899758337545</v>
       </c>
       <c r="M24">
-        <v>24.47832271266189</v>
+        <v>11.35001199966293</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.77892685870816</v>
+        <v>24.39654281961177</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.75588127356266</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.397862808257832</v>
+        <v>3.02464720686402</v>
       </c>
       <c r="D25">
-        <v>4.524542622022291</v>
+        <v>4.837428759845501</v>
       </c>
       <c r="E25">
-        <v>13.30419432233608</v>
+        <v>13.19296926676878</v>
       </c>
       <c r="F25">
-        <v>23.4947722376461</v>
+        <v>21.25854245858802</v>
       </c>
       <c r="G25">
-        <v>32.10798902158149</v>
+        <v>27.81133460314831</v>
       </c>
       <c r="H25">
-        <v>2.137132214110017</v>
+        <v>2.088854768777813</v>
       </c>
       <c r="I25">
-        <v>3.720495187217866</v>
+        <v>3.63252590747673</v>
       </c>
       <c r="J25">
-        <v>10.50010134708483</v>
+        <v>10.14663783708795</v>
       </c>
       <c r="K25">
-        <v>18.2848102349959</v>
+        <v>16.21632455603894</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.94093086888816</v>
       </c>
       <c r="M25">
-        <v>22.2727244784363</v>
+        <v>10.46661014670051</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.85565203862135</v>
+        <v>22.22071976319594</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.84294567371848</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
